--- a/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.88417748254685</v>
+        <v>21.88417748254678</v>
       </c>
       <c r="C2">
-        <v>14.09139794547225</v>
+        <v>14.09139794547231</v>
       </c>
       <c r="D2">
-        <v>7.256774926538788</v>
+        <v>7.256774926538704</v>
       </c>
       <c r="E2">
-        <v>7.689229129920756</v>
+        <v>7.689229129920664</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.77644737511824</v>
+        <v>63.77644737511792</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.902373688197383</v>
+        <v>8.90237368819739</v>
       </c>
       <c r="L2">
-        <v>15.42580431154601</v>
+        <v>15.42580431154603</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.17045900202792</v>
+        <v>20.17045900202804</v>
       </c>
       <c r="C3">
-        <v>12.98130927263782</v>
+        <v>12.98130927263806</v>
       </c>
       <c r="D3">
-        <v>6.711995837282777</v>
+        <v>6.711995837282744</v>
       </c>
       <c r="E3">
-        <v>7.424455959906432</v>
+        <v>7.424455959906558</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.69251530274865</v>
+        <v>59.69251530274874</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.454281025349761</v>
+        <v>8.454281025349751</v>
       </c>
       <c r="L3">
-        <v>14.27306318889677</v>
+        <v>14.27306318889683</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08215344962281</v>
+        <v>19.08215344962283</v>
       </c>
       <c r="C4">
-        <v>12.27910228523353</v>
+        <v>12.27910228523367</v>
       </c>
       <c r="D4">
-        <v>6.364193831813888</v>
+        <v>6.364193831813969</v>
       </c>
       <c r="E4">
-        <v>7.262956242649992</v>
+        <v>7.262956242649979</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.12048482255915</v>
+        <v>57.12048482255947</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.179388265312042</v>
+        <v>8.179388265312026</v>
       </c>
       <c r="L4">
-        <v>13.53814081034854</v>
+        <v>13.53814081034859</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62905450696147</v>
+        <v>18.62905450696142</v>
       </c>
       <c r="C5">
-        <v>11.98728640104698</v>
+        <v>11.98728640104717</v>
       </c>
       <c r="D5">
-        <v>6.22184979605614</v>
+        <v>6.221849796056158</v>
       </c>
       <c r="E5">
-        <v>7.197365493618781</v>
+        <v>7.197365493618775</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.05560742084831</v>
+        <v>56.05560742084836</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.067443972788784</v>
+        <v>8.067443972788759</v>
       </c>
       <c r="L5">
-        <v>13.23146468384395</v>
+        <v>13.23146468384397</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.55322373095735</v>
+        <v>18.55322373095727</v>
       </c>
       <c r="C6">
-        <v>11.93847586307583</v>
+        <v>11.93847586307584</v>
       </c>
       <c r="D6">
-        <v>6.201382276395229</v>
+        <v>6.201382276395297</v>
       </c>
       <c r="E6">
-        <v>7.186486506368878</v>
+        <v>7.186486506368775</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.87776349656087</v>
+        <v>55.87776349656129</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.048861551386787</v>
+        <v>8.048861551386763</v>
       </c>
       <c r="L6">
-        <v>13.18009727849702</v>
+        <v>13.18009727849708</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.07608233161444</v>
+        <v>19.07608233161418</v>
       </c>
       <c r="C7">
-        <v>12.27519026267762</v>
+        <v>12.27519026267793</v>
       </c>
       <c r="D7">
-        <v>6.362249462008339</v>
+        <v>6.362249462008436</v>
       </c>
       <c r="E7">
-        <v>7.262070816304128</v>
+        <v>7.262070816304121</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.10619184243618</v>
+        <v>57.1061918424364</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.177878185076004</v>
+        <v>8.17787818507597</v>
       </c>
       <c r="L7">
-        <v>13.53403442932524</v>
+        <v>13.53403442932519</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.30042324715538</v>
+        <v>21.3004232471556</v>
       </c>
       <c r="C8">
-        <v>13.71260741806574</v>
+        <v>13.71260741806599</v>
       </c>
       <c r="D8">
-        <v>7.071591271544428</v>
+        <v>7.07159127154436</v>
       </c>
       <c r="E8">
-        <v>7.597678255356476</v>
+        <v>7.597678255356559</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.38126701716047</v>
+        <v>62.38126701716127</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.747819658168114</v>
+        <v>8.747819658168096</v>
       </c>
       <c r="L8">
-        <v>15.0337353725061</v>
+        <v>15.03373537250619</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.40594173386281</v>
+        <v>25.40594173386289</v>
       </c>
       <c r="C9">
-        <v>16.39359555598582</v>
+        <v>16.39359555598584</v>
       </c>
       <c r="D9">
-        <v>8.365737949593505</v>
+        <v>8.365737949593354</v>
       </c>
       <c r="E9">
-        <v>8.267632384157313</v>
+        <v>8.267632384157389</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.25652139853902</v>
+        <v>72.25652139853945</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.90166513137622</v>
+        <v>9.901665131376289</v>
       </c>
       <c r="L9">
-        <v>17.7788490433672</v>
+        <v>17.77884904336729</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.3188375902201</v>
+        <v>28.31883759021999</v>
       </c>
       <c r="C10">
-        <v>18.32391716705294</v>
+        <v>18.32391716705277</v>
       </c>
       <c r="D10">
-        <v>9.27235052191069</v>
+        <v>9.272350521910621</v>
       </c>
       <c r="E10">
-        <v>8.774052619243523</v>
+        <v>8.774052619243507</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.31651086759732</v>
+        <v>79.31651086759753</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.96117045045849</v>
+        <v>10.96117045045843</v>
       </c>
       <c r="L10">
-        <v>19.70976109526884</v>
+        <v>19.70976109526877</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.63774801671772</v>
+        <v>29.63774801671753</v>
       </c>
       <c r="C11">
-        <v>19.20701561555457</v>
+        <v>19.20701561555462</v>
       </c>
       <c r="D11">
-        <v>9.679609774300202</v>
+        <v>9.679609774300159</v>
       </c>
       <c r="E11">
-        <v>9.009999282894873</v>
+        <v>9.009999282894841</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.51728896535624</v>
+        <v>82.51728896535575</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.4360643410695</v>
+        <v>11.43606434106942</v>
       </c>
       <c r="L11">
-        <v>20.57950436121952</v>
+        <v>20.57950436121935</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.13813146568499</v>
+        <v>30.13813146568517</v>
       </c>
       <c r="C12">
-        <v>19.5436639723344</v>
+        <v>19.54366397233454</v>
       </c>
       <c r="D12">
-        <v>9.833577106040668</v>
+        <v>9.833577106040625</v>
       </c>
       <c r="E12">
-        <v>9.100450355884677</v>
+        <v>9.100450355884735</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.73151437860993</v>
+        <v>83.73151437861036</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.61541144844509</v>
+        <v>11.61541144844512</v>
       </c>
       <c r="L12">
-        <v>20.90872523113306</v>
+        <v>20.90872523113319</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.03028824404576</v>
+        <v>30.03028824404569</v>
       </c>
       <c r="C13">
-        <v>19.47103218825686</v>
+        <v>19.47103218825678</v>
       </c>
       <c r="D13">
-        <v>9.800419466374171</v>
+        <v>9.800419466374132</v>
       </c>
       <c r="E13">
-        <v>9.080915107464833</v>
+        <v>9.080915107464772</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.46984113755734</v>
+        <v>83.46984113755663</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.57679733783767</v>
+        <v>11.57679733783769</v>
       </c>
       <c r="L13">
         <v>20.83780645552369</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.67888365220647</v>
+        <v>29.67888365220643</v>
       </c>
       <c r="C14">
-        <v>19.23465674241756</v>
+        <v>19.23465674241775</v>
       </c>
       <c r="D14">
-        <v>9.692278540179501</v>
+        <v>9.692278540179553</v>
       </c>
       <c r="E14">
-        <v>9.017416540461896</v>
+        <v>9.017416540461973</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.61711522329823</v>
+        <v>82.61711522329796</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>11.45082548124415</v>
       </c>
       <c r="L14">
-        <v>20.60658474225619</v>
+        <v>20.60658474225617</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.46382386594208</v>
+        <v>29.46382386594224</v>
       </c>
       <c r="C15">
-        <v>19.09021396727489</v>
+        <v>19.09021396727474</v>
       </c>
       <c r="D15">
-        <v>9.62602297565755</v>
+        <v>9.626022975657479</v>
       </c>
       <c r="E15">
-        <v>8.978676198450483</v>
+        <v>8.978676198450497</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.09520752417696</v>
+        <v>82.09520752417777</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.37361920369005</v>
+        <v>11.37361920369003</v>
       </c>
       <c r="L15">
-        <v>20.46497573463354</v>
+        <v>20.46497573463359</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.23266443539657</v>
+        <v>28.23266443539677</v>
       </c>
       <c r="C16">
-        <v>18.26642558288622</v>
+        <v>18.26642558288615</v>
       </c>
       <c r="D16">
-        <v>9.245670223579056</v>
+        <v>9.245670223579069</v>
       </c>
       <c r="E16">
-        <v>8.758768680423866</v>
+        <v>8.758768680423918</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.10740695186239</v>
+        <v>79.10740695186348</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.93003501866667</v>
+        <v>10.93003501866668</v>
       </c>
       <c r="L16">
-        <v>19.65283577616365</v>
+        <v>19.65283577616374</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.47695647846465</v>
+        <v>27.47695647846426</v>
       </c>
       <c r="C17">
-        <v>17.76329246009381</v>
+        <v>17.76329246009366</v>
       </c>
       <c r="D17">
-        <v>9.011323400856694</v>
+        <v>9.011323400856581</v>
       </c>
       <c r="E17">
-        <v>8.625475186879552</v>
+        <v>8.625475186879425</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.27401917321527</v>
+        <v>77.27401917321394</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.65643504384506</v>
+        <v>10.65643504384504</v>
       </c>
       <c r="L17">
-        <v>19.15310338862942</v>
+        <v>19.15310338862925</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.04157746721795</v>
+        <v>27.04157746721807</v>
       </c>
       <c r="C18">
-        <v>17.47426148855828</v>
+        <v>17.47426148855821</v>
       </c>
       <c r="D18">
-        <v>8.876011708896822</v>
+        <v>8.876011708896772</v>
       </c>
       <c r="E18">
-        <v>8.549309983825676</v>
+        <v>8.549309983825705</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.21820340585002</v>
+        <v>76.21820340585067</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.49836245529705</v>
+        <v>10.49836245529711</v>
       </c>
       <c r="L18">
-        <v>18.8647766266124</v>
+        <v>18.8647766266125</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.89399477066948</v>
+        <v>26.89399477066955</v>
       </c>
       <c r="C19">
-        <v>17.37642220096146</v>
+        <v>17.37642220096152</v>
       </c>
       <c r="D19">
-        <v>8.830095006904127</v>
+        <v>8.830095006904109</v>
       </c>
       <c r="E19">
-        <v>8.523600268037072</v>
+        <v>8.52360026803715</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.8604033671615</v>
+        <v>75.86040336716222</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.44470659952967</v>
+        <v>10.44470659952964</v>
       </c>
       <c r="L19">
-        <v>18.76697138605784</v>
+        <v>18.76697138605788</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.55746528651305</v>
+        <v>27.55746528651266</v>
       </c>
       <c r="C20">
-        <v>17.81680509274226</v>
+        <v>17.81680509274209</v>
       </c>
       <c r="D20">
-        <v>9.036320862795238</v>
+        <v>9.036320862795279</v>
       </c>
       <c r="E20">
-        <v>8.639610708274773</v>
+        <v>8.639610708274704</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.4692975232722</v>
+        <v>77.4692975232707</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.68562977743571</v>
+        <v>10.68562977743565</v>
       </c>
       <c r="L20">
-        <v>19.20638615595362</v>
+        <v>19.20638615595341</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.78205696678179</v>
+        <v>29.78205696678184</v>
       </c>
       <c r="C21">
-        <v>19.3040108893353</v>
+        <v>19.30401088933532</v>
       </c>
       <c r="D21">
-        <v>9.724044439217085</v>
+        <v>9.724044439217142</v>
       </c>
       <c r="E21">
-        <v>9.036034749502738</v>
+        <v>9.036034749502711</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.86748736872116</v>
+        <v>82.86748736872084</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.48783465690752</v>
+        <v>11.48783465690751</v>
       </c>
       <c r="L21">
-        <v>20.67449335862646</v>
+        <v>20.67449335862647</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.24271020660026</v>
+        <v>31.24271020660024</v>
       </c>
       <c r="C22">
-        <v>20.29008976313011</v>
+        <v>20.29008976313002</v>
       </c>
       <c r="D22">
-        <v>10.17237317114763</v>
+        <v>10.17237317114752</v>
       </c>
       <c r="E22">
-        <v>9.301773547490306</v>
+        <v>9.301773547490303</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.41076954889452</v>
+        <v>86.41076954889435</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.00965918538172</v>
+        <v>12.00965918538164</v>
       </c>
       <c r="L22">
-        <v>21.6339800814576</v>
+        <v>21.63398008145755</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.46176152859393</v>
+        <v>30.46176152859396</v>
       </c>
       <c r="C23">
-        <v>19.76188417034293</v>
+        <v>19.76188417034306</v>
       </c>
       <c r="D23">
-        <v>9.932995989453239</v>
+        <v>9.932995989453229</v>
       </c>
       <c r="E23">
-        <v>9.159206340225987</v>
+        <v>9.159206340226048</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.51669932150608</v>
+        <v>84.51669932150625</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.73115997575122</v>
+        <v>11.73115997575121</v>
       </c>
       <c r="L23">
-        <v>21.12143062853443</v>
+        <v>21.12143062853444</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52107022708371</v>
+        <v>27.52107022708377</v>
       </c>
       <c r="C24">
-        <v>17.79261143317854</v>
+        <v>17.79261143317889</v>
       </c>
       <c r="D24">
-        <v>9.025021359905585</v>
+        <v>9.025021359905562</v>
       </c>
       <c r="E24">
-        <v>8.633218605749999</v>
+        <v>8.633218605750063</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.38101797954036</v>
+        <v>77.38101797954016</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.67243329464311</v>
+        <v>10.67243329464314</v>
       </c>
       <c r="L24">
-        <v>19.18230028565823</v>
+        <v>19.18230028565827</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.31798553694281</v>
+        <v>24.3179855369426</v>
       </c>
       <c r="C25">
-        <v>15.67902354763891</v>
+        <v>15.67902354763875</v>
       </c>
       <c r="D25">
-        <v>8.024648976079888</v>
+        <v>8.024648976079883</v>
       </c>
       <c r="E25">
-        <v>8.08454518513169</v>
+        <v>8.084545185131592</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.62768211648905</v>
+        <v>69.62768211648827</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.564876370813069</v>
+        <v>9.564876370813067</v>
       </c>
       <c r="L25">
-        <v>17.05413280092892</v>
+        <v>17.0541328009288</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.88417748254678</v>
+        <v>21.88417748254685</v>
       </c>
       <c r="C2">
-        <v>14.09139794547231</v>
+        <v>14.09139794547225</v>
       </c>
       <c r="D2">
-        <v>7.256774926538704</v>
+        <v>7.256774926538788</v>
       </c>
       <c r="E2">
-        <v>7.689229129920664</v>
+        <v>7.689229129920756</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.77644737511792</v>
+        <v>63.77644737511824</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.90237368819739</v>
+        <v>8.902373688197383</v>
       </c>
       <c r="L2">
-        <v>15.42580431154603</v>
+        <v>15.42580431154601</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.17045900202804</v>
+        <v>20.17045900202792</v>
       </c>
       <c r="C3">
-        <v>12.98130927263806</v>
+        <v>12.98130927263782</v>
       </c>
       <c r="D3">
-        <v>6.711995837282744</v>
+        <v>6.711995837282777</v>
       </c>
       <c r="E3">
-        <v>7.424455959906558</v>
+        <v>7.424455959906432</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.69251530274874</v>
+        <v>59.69251530274865</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.454281025349751</v>
+        <v>8.454281025349761</v>
       </c>
       <c r="L3">
-        <v>14.27306318889683</v>
+        <v>14.27306318889677</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08215344962283</v>
+        <v>19.08215344962281</v>
       </c>
       <c r="C4">
-        <v>12.27910228523367</v>
+        <v>12.27910228523353</v>
       </c>
       <c r="D4">
-        <v>6.364193831813969</v>
+        <v>6.364193831813888</v>
       </c>
       <c r="E4">
-        <v>7.262956242649979</v>
+        <v>7.262956242649992</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.12048482255947</v>
+        <v>57.12048482255915</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.179388265312026</v>
+        <v>8.179388265312042</v>
       </c>
       <c r="L4">
-        <v>13.53814081034859</v>
+        <v>13.53814081034854</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62905450696142</v>
+        <v>18.62905450696147</v>
       </c>
       <c r="C5">
-        <v>11.98728640104717</v>
+        <v>11.98728640104698</v>
       </c>
       <c r="D5">
-        <v>6.221849796056158</v>
+        <v>6.22184979605614</v>
       </c>
       <c r="E5">
-        <v>7.197365493618775</v>
+        <v>7.197365493618781</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.05560742084836</v>
+        <v>56.05560742084831</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.067443972788759</v>
+        <v>8.067443972788784</v>
       </c>
       <c r="L5">
-        <v>13.23146468384397</v>
+        <v>13.23146468384395</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.55322373095727</v>
+        <v>18.55322373095735</v>
       </c>
       <c r="C6">
-        <v>11.93847586307584</v>
+        <v>11.93847586307583</v>
       </c>
       <c r="D6">
-        <v>6.201382276395297</v>
+        <v>6.201382276395229</v>
       </c>
       <c r="E6">
-        <v>7.186486506368775</v>
+        <v>7.186486506368878</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.87776349656129</v>
+        <v>55.87776349656087</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.048861551386763</v>
+        <v>8.048861551386787</v>
       </c>
       <c r="L6">
-        <v>13.18009727849708</v>
+        <v>13.18009727849702</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.07608233161418</v>
+        <v>19.07608233161444</v>
       </c>
       <c r="C7">
-        <v>12.27519026267793</v>
+        <v>12.27519026267762</v>
       </c>
       <c r="D7">
-        <v>6.362249462008436</v>
+        <v>6.362249462008339</v>
       </c>
       <c r="E7">
-        <v>7.262070816304121</v>
+        <v>7.262070816304128</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.1061918424364</v>
+        <v>57.10619184243618</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.17787818507597</v>
+        <v>8.177878185076004</v>
       </c>
       <c r="L7">
-        <v>13.53403442932519</v>
+        <v>13.53403442932524</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.3004232471556</v>
+        <v>21.30042324715538</v>
       </c>
       <c r="C8">
-        <v>13.71260741806599</v>
+        <v>13.71260741806574</v>
       </c>
       <c r="D8">
-        <v>7.07159127154436</v>
+        <v>7.071591271544428</v>
       </c>
       <c r="E8">
-        <v>7.597678255356559</v>
+        <v>7.597678255356476</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.38126701716127</v>
+        <v>62.38126701716047</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.747819658168096</v>
+        <v>8.747819658168114</v>
       </c>
       <c r="L8">
-        <v>15.03373537250619</v>
+        <v>15.0337353725061</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.40594173386289</v>
+        <v>25.40594173386281</v>
       </c>
       <c r="C9">
-        <v>16.39359555598584</v>
+        <v>16.39359555598582</v>
       </c>
       <c r="D9">
-        <v>8.365737949593354</v>
+        <v>8.365737949593505</v>
       </c>
       <c r="E9">
-        <v>8.267632384157389</v>
+        <v>8.267632384157313</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.25652139853945</v>
+        <v>72.25652139853902</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.901665131376289</v>
+        <v>9.90166513137622</v>
       </c>
       <c r="L9">
-        <v>17.77884904336729</v>
+        <v>17.7788490433672</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.31883759021999</v>
+        <v>28.3188375902201</v>
       </c>
       <c r="C10">
-        <v>18.32391716705277</v>
+        <v>18.32391716705294</v>
       </c>
       <c r="D10">
-        <v>9.272350521910621</v>
+        <v>9.27235052191069</v>
       </c>
       <c r="E10">
-        <v>8.774052619243507</v>
+        <v>8.774052619243523</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.31651086759753</v>
+        <v>79.31651086759732</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.96117045045843</v>
+        <v>10.96117045045849</v>
       </c>
       <c r="L10">
-        <v>19.70976109526877</v>
+        <v>19.70976109526884</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.63774801671753</v>
+        <v>29.63774801671772</v>
       </c>
       <c r="C11">
-        <v>19.20701561555462</v>
+        <v>19.20701561555457</v>
       </c>
       <c r="D11">
-        <v>9.679609774300159</v>
+        <v>9.679609774300202</v>
       </c>
       <c r="E11">
-        <v>9.009999282894841</v>
+        <v>9.009999282894873</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.51728896535575</v>
+        <v>82.51728896535624</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.43606434106942</v>
+        <v>11.4360643410695</v>
       </c>
       <c r="L11">
-        <v>20.57950436121935</v>
+        <v>20.57950436121952</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.13813146568517</v>
+        <v>30.13813146568499</v>
       </c>
       <c r="C12">
-        <v>19.54366397233454</v>
+        <v>19.5436639723344</v>
       </c>
       <c r="D12">
-        <v>9.833577106040625</v>
+        <v>9.833577106040668</v>
       </c>
       <c r="E12">
-        <v>9.100450355884735</v>
+        <v>9.100450355884677</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.73151437861036</v>
+        <v>83.73151437860993</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.61541144844512</v>
+        <v>11.61541144844509</v>
       </c>
       <c r="L12">
-        <v>20.90872523113319</v>
+        <v>20.90872523113306</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.03028824404569</v>
+        <v>30.03028824404576</v>
       </c>
       <c r="C13">
-        <v>19.47103218825678</v>
+        <v>19.47103218825686</v>
       </c>
       <c r="D13">
-        <v>9.800419466374132</v>
+        <v>9.800419466374171</v>
       </c>
       <c r="E13">
-        <v>9.080915107464772</v>
+        <v>9.080915107464833</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.46984113755663</v>
+        <v>83.46984113755734</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.57679733783769</v>
+        <v>11.57679733783767</v>
       </c>
       <c r="L13">
         <v>20.83780645552369</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.67888365220643</v>
+        <v>29.67888365220647</v>
       </c>
       <c r="C14">
-        <v>19.23465674241775</v>
+        <v>19.23465674241756</v>
       </c>
       <c r="D14">
-        <v>9.692278540179553</v>
+        <v>9.692278540179501</v>
       </c>
       <c r="E14">
-        <v>9.017416540461973</v>
+        <v>9.017416540461896</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.61711522329796</v>
+        <v>82.61711522329823</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>11.45082548124415</v>
       </c>
       <c r="L14">
-        <v>20.60658474225617</v>
+        <v>20.60658474225619</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.46382386594224</v>
+        <v>29.46382386594208</v>
       </c>
       <c r="C15">
-        <v>19.09021396727474</v>
+        <v>19.09021396727489</v>
       </c>
       <c r="D15">
-        <v>9.626022975657479</v>
+        <v>9.62602297565755</v>
       </c>
       <c r="E15">
-        <v>8.978676198450497</v>
+        <v>8.978676198450483</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.09520752417777</v>
+        <v>82.09520752417696</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.37361920369003</v>
+        <v>11.37361920369005</v>
       </c>
       <c r="L15">
-        <v>20.46497573463359</v>
+        <v>20.46497573463354</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.23266443539677</v>
+        <v>28.23266443539657</v>
       </c>
       <c r="C16">
-        <v>18.26642558288615</v>
+        <v>18.26642558288622</v>
       </c>
       <c r="D16">
-        <v>9.245670223579069</v>
+        <v>9.245670223579056</v>
       </c>
       <c r="E16">
-        <v>8.758768680423918</v>
+        <v>8.758768680423866</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.10740695186348</v>
+        <v>79.10740695186239</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.93003501866668</v>
+        <v>10.93003501866667</v>
       </c>
       <c r="L16">
-        <v>19.65283577616374</v>
+        <v>19.65283577616365</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.47695647846426</v>
+        <v>27.47695647846465</v>
       </c>
       <c r="C17">
-        <v>17.76329246009366</v>
+        <v>17.76329246009381</v>
       </c>
       <c r="D17">
-        <v>9.011323400856581</v>
+        <v>9.011323400856694</v>
       </c>
       <c r="E17">
-        <v>8.625475186879425</v>
+        <v>8.625475186879552</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.27401917321394</v>
+        <v>77.27401917321527</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.65643504384504</v>
+        <v>10.65643504384506</v>
       </c>
       <c r="L17">
-        <v>19.15310338862925</v>
+        <v>19.15310338862942</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.04157746721807</v>
+        <v>27.04157746721795</v>
       </c>
       <c r="C18">
-        <v>17.47426148855821</v>
+        <v>17.47426148855828</v>
       </c>
       <c r="D18">
-        <v>8.876011708896772</v>
+        <v>8.876011708896822</v>
       </c>
       <c r="E18">
-        <v>8.549309983825705</v>
+        <v>8.549309983825676</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.21820340585067</v>
+        <v>76.21820340585002</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.49836245529711</v>
+        <v>10.49836245529705</v>
       </c>
       <c r="L18">
-        <v>18.8647766266125</v>
+        <v>18.8647766266124</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.89399477066955</v>
+        <v>26.89399477066948</v>
       </c>
       <c r="C19">
-        <v>17.37642220096152</v>
+        <v>17.37642220096146</v>
       </c>
       <c r="D19">
-        <v>8.830095006904109</v>
+        <v>8.830095006904127</v>
       </c>
       <c r="E19">
-        <v>8.52360026803715</v>
+        <v>8.523600268037072</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.86040336716222</v>
+        <v>75.8604033671615</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.44470659952964</v>
+        <v>10.44470659952967</v>
       </c>
       <c r="L19">
-        <v>18.76697138605788</v>
+        <v>18.76697138605784</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.55746528651266</v>
+        <v>27.55746528651305</v>
       </c>
       <c r="C20">
-        <v>17.81680509274209</v>
+        <v>17.81680509274226</v>
       </c>
       <c r="D20">
-        <v>9.036320862795279</v>
+        <v>9.036320862795238</v>
       </c>
       <c r="E20">
-        <v>8.639610708274704</v>
+        <v>8.639610708274773</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.4692975232707</v>
+        <v>77.4692975232722</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.68562977743565</v>
+        <v>10.68562977743571</v>
       </c>
       <c r="L20">
-        <v>19.20638615595341</v>
+        <v>19.20638615595362</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.78205696678184</v>
+        <v>29.78205696678179</v>
       </c>
       <c r="C21">
-        <v>19.30401088933532</v>
+        <v>19.3040108893353</v>
       </c>
       <c r="D21">
-        <v>9.724044439217142</v>
+        <v>9.724044439217085</v>
       </c>
       <c r="E21">
-        <v>9.036034749502711</v>
+        <v>9.036034749502738</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.86748736872084</v>
+        <v>82.86748736872116</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.48783465690751</v>
+        <v>11.48783465690752</v>
       </c>
       <c r="L21">
-        <v>20.67449335862647</v>
+        <v>20.67449335862646</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.24271020660024</v>
+        <v>31.24271020660026</v>
       </c>
       <c r="C22">
-        <v>20.29008976313002</v>
+        <v>20.29008976313011</v>
       </c>
       <c r="D22">
-        <v>10.17237317114752</v>
+        <v>10.17237317114763</v>
       </c>
       <c r="E22">
-        <v>9.301773547490303</v>
+        <v>9.301773547490306</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.41076954889435</v>
+        <v>86.41076954889452</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.00965918538164</v>
+        <v>12.00965918538172</v>
       </c>
       <c r="L22">
-        <v>21.63398008145755</v>
+        <v>21.6339800814576</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.46176152859396</v>
+        <v>30.46176152859393</v>
       </c>
       <c r="C23">
-        <v>19.76188417034306</v>
+        <v>19.76188417034293</v>
       </c>
       <c r="D23">
-        <v>9.932995989453229</v>
+        <v>9.932995989453239</v>
       </c>
       <c r="E23">
-        <v>9.159206340226048</v>
+        <v>9.159206340225987</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.51669932150625</v>
+        <v>84.51669932150608</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.73115997575121</v>
+        <v>11.73115997575122</v>
       </c>
       <c r="L23">
-        <v>21.12143062853444</v>
+        <v>21.12143062853443</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52107022708377</v>
+        <v>27.52107022708371</v>
       </c>
       <c r="C24">
-        <v>17.79261143317889</v>
+        <v>17.79261143317854</v>
       </c>
       <c r="D24">
-        <v>9.025021359905562</v>
+        <v>9.025021359905585</v>
       </c>
       <c r="E24">
-        <v>8.633218605750063</v>
+        <v>8.633218605749999</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.38101797954016</v>
+        <v>77.38101797954036</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.67243329464314</v>
+        <v>10.67243329464311</v>
       </c>
       <c r="L24">
-        <v>19.18230028565827</v>
+        <v>19.18230028565823</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.3179855369426</v>
+        <v>24.31798553694281</v>
       </c>
       <c r="C25">
-        <v>15.67902354763875</v>
+        <v>15.67902354763891</v>
       </c>
       <c r="D25">
-        <v>8.024648976079883</v>
+        <v>8.024648976079888</v>
       </c>
       <c r="E25">
-        <v>8.084545185131592</v>
+        <v>8.08454518513169</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.62768211648827</v>
+        <v>69.62768211648905</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.564876370813067</v>
+        <v>9.564876370813069</v>
       </c>
       <c r="L25">
-        <v>17.0541328009288</v>
+        <v>17.05413280092892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.88417748254685</v>
+        <v>21.88005937518128</v>
       </c>
       <c r="C2">
-        <v>14.09139794547225</v>
+        <v>14.08559840983267</v>
       </c>
       <c r="D2">
-        <v>7.256774926538788</v>
+        <v>7.256207216273309</v>
       </c>
       <c r="E2">
-        <v>7.689229129920756</v>
+        <v>7.686393233031248</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.77644737511824</v>
+        <v>63.13107595081985</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.7629793126427</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.902373688197383</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.42580431154601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>8.902112079080084</v>
+      </c>
+      <c r="M2">
+        <v>15.42325359580211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.17045900202792</v>
+        <v>20.16748084410445</v>
       </c>
       <c r="C3">
-        <v>12.98130927263782</v>
+        <v>12.97685763528419</v>
       </c>
       <c r="D3">
-        <v>6.711995837282777</v>
+        <v>6.711588941097219</v>
       </c>
       <c r="E3">
-        <v>7.424455959906432</v>
+        <v>7.422146549632172</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.69251530274865</v>
+        <v>58.88040132469686</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.68235863130887</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.454281025349761</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.27306318889677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.454128607224394</v>
+      </c>
+      <c r="M3">
+        <v>14.27113092338501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08215344962281</v>
+        <v>19.07980484727619</v>
       </c>
       <c r="C4">
-        <v>12.27910228523353</v>
+        <v>12.27542958102939</v>
       </c>
       <c r="D4">
-        <v>6.364193831813888</v>
+        <v>6.36387338249654</v>
       </c>
       <c r="E4">
-        <v>7.262956242649992</v>
+        <v>7.260976856051547</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.12048482255915</v>
+        <v>56.19347874633259</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.11240349906579</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.179388265312042</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.53814081034854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.179288758157101</v>
+      </c>
+      <c r="M4">
+        <v>13.5365593733747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62905450696147</v>
+        <v>18.62694730288396</v>
       </c>
       <c r="C5">
-        <v>11.98728640104698</v>
+        <v>11.98392158423514</v>
       </c>
       <c r="D5">
-        <v>6.22184979605614</v>
+        <v>6.221644311630542</v>
       </c>
       <c r="E5">
-        <v>7.197365493618781</v>
+        <v>7.195522831036532</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.05560742084831</v>
+        <v>55.07846850665386</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.0483902196443</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.067443972788784</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.23146468384395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.067363010449355</v>
+      </c>
+      <c r="M5">
+        <v>13.23002051531329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.55322373095735</v>
+        <v>18.5511557584192</v>
       </c>
       <c r="C6">
-        <v>11.93847586307583</v>
+        <v>11.93516166495528</v>
       </c>
       <c r="D6">
-        <v>6.201382276395229</v>
+        <v>6.201181286101696</v>
       </c>
       <c r="E6">
-        <v>7.186486506368878</v>
+        <v>7.1846666950415</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.87776349656087</v>
+        <v>54.89209478070397</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.87069110723033</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.048861551386787</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.18009727849702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.048783499951833</v>
+      </c>
+      <c r="M6">
+        <v>13.17867559969747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.07608233161444</v>
+        <v>19.07373704328504</v>
       </c>
       <c r="C7">
-        <v>12.27519026267762</v>
+        <v>12.27152174612856</v>
       </c>
       <c r="D7">
-        <v>6.362249462008339</v>
+        <v>6.361929463406399</v>
       </c>
       <c r="E7">
-        <v>7.262070816304128</v>
+        <v>7.260093263942094</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.10619184243618</v>
+        <v>56.17852330446188</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.09812208854762</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.177878185076004</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.53403442932524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.17777893960378</v>
+      </c>
+      <c r="M7">
+        <v>13.53245486480347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.30042324715538</v>
+        <v>21.29671454547637</v>
       </c>
       <c r="C8">
-        <v>13.71260741806574</v>
+        <v>13.70728453827357</v>
       </c>
       <c r="D8">
-        <v>7.071591271544428</v>
+        <v>7.07108195102934</v>
       </c>
       <c r="E8">
-        <v>7.597678255356476</v>
+        <v>7.595022855585072</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.38126701716047</v>
+        <v>61.6809034513721</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.36893695298586</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.747819658168114</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>15.0337353725061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.747598990801807</v>
+      </c>
+      <c r="M8">
+        <v>15.03140494273298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.40594173386281</v>
+        <v>25.3988433783537</v>
       </c>
       <c r="C9">
-        <v>16.39359555598582</v>
+        <v>16.38448541892805</v>
       </c>
       <c r="D9">
-        <v>8.365737949593505</v>
+        <v>8.364725241555121</v>
       </c>
       <c r="E9">
-        <v>8.267632384157313</v>
+        <v>8.263668271732467</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.25652139853902</v>
+        <v>71.90930432562857</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.23575861537955</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.90166513137622</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.7788490433672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.900671386961326</v>
+      </c>
+      <c r="M9">
+        <v>17.77472504493139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.3188375902201</v>
+        <v>28.30849779373491</v>
       </c>
       <c r="C10">
-        <v>18.32391716705294</v>
+        <v>18.31139400174959</v>
       </c>
       <c r="D10">
-        <v>9.27235052191069</v>
+        <v>9.270819298018889</v>
       </c>
       <c r="E10">
-        <v>8.774052619243523</v>
+        <v>8.769073928582724</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.31651086759732</v>
+        <v>79.18040111748024</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>79.28877115798055</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.96117045045849</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.70976109526884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>10.95966226003031</v>
+      </c>
+      <c r="M10">
+        <v>19.70394609147652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.63774801671772</v>
+        <v>29.62565843655435</v>
       </c>
       <c r="C11">
-        <v>19.20701561555457</v>
+        <v>19.1926995476825</v>
       </c>
       <c r="D11">
-        <v>9.679609774300202</v>
+        <v>9.677786045861964</v>
       </c>
       <c r="E11">
-        <v>9.009999282894873</v>
+        <v>9.004524360425773</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.51728896535624</v>
+        <v>82.46822522038212</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>82.48596541609766</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.4360643410695</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.57950436121952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.43426491830188</v>
+      </c>
+      <c r="M11">
+        <v>20.57277682764677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.13813146568499</v>
+        <v>30.12532531580292</v>
       </c>
       <c r="C12">
-        <v>19.5436639723344</v>
+        <v>19.5286213533098</v>
       </c>
       <c r="D12">
-        <v>9.833577106040668</v>
+        <v>9.831631312632707</v>
       </c>
       <c r="E12">
-        <v>9.100450355884677</v>
+        <v>9.094779584378601</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.73151437860993</v>
+        <v>83.71423451058078</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>83.71423451058078</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.61541144844509</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.90872523113306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.61349030482719</v>
+      </c>
+      <c r="M12">
+        <v>20.90162357685429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.03028824404576</v>
+        <v>30.01763911375925</v>
       </c>
       <c r="C13">
-        <v>19.47103218825686</v>
+        <v>19.45614842776627</v>
       </c>
       <c r="D13">
-        <v>9.800419466374171</v>
+        <v>9.798500529231207</v>
       </c>
       <c r="E13">
-        <v>9.080915107464833</v>
+        <v>9.075286928424216</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.46984113755734</v>
+        <v>83.4457666953477</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>83.44576669534773</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.57679733783767</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.83780645552369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.57490298367542</v>
+      </c>
+      <c r="M13">
+        <v>20.83078680775813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.67888365220647</v>
+        <v>29.6667363043851</v>
       </c>
       <c r="C14">
-        <v>19.23465674241756</v>
+        <v>19.22028194851278</v>
       </c>
       <c r="D14">
-        <v>9.692278540179501</v>
+        <v>9.690445018687946</v>
       </c>
       <c r="E14">
-        <v>9.017416540461896</v>
+        <v>9.011925685556935</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.61711522329823</v>
+        <v>82.57068934154113</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>82.58567471045907</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.45082548124415</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.60658474225619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.44901629690687</v>
+      </c>
+      <c r="M14">
+        <v>20.59982705931276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.46382386594208</v>
+        <v>29.45197632087076</v>
       </c>
       <c r="C15">
-        <v>19.09021396727489</v>
+        <v>19.07614425376131</v>
       </c>
       <c r="D15">
-        <v>9.62602297565755</v>
+        <v>9.624240186129395</v>
       </c>
       <c r="E15">
-        <v>8.978676198450483</v>
+        <v>8.973268317575297</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.09520752417696</v>
+        <v>82.03494055495241</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>82.06437485310187</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.37361920369005</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>20.46497573463354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.37186058072024</v>
+      </c>
+      <c r="M15">
+        <v>20.45837450158222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.23266443539657</v>
+        <v>28.22243234705143</v>
       </c>
       <c r="C16">
-        <v>18.26642558288622</v>
+        <v>18.25401374549351</v>
       </c>
       <c r="D16">
-        <v>9.245670223579056</v>
+        <v>9.244156734146991</v>
       </c>
       <c r="E16">
-        <v>8.758768680423866</v>
+        <v>8.753821494488859</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.10740695186239</v>
+        <v>78.96543753521449</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>79.07989089976965</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.93003501866667</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.65283577616365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>10.92854446385695</v>
+      </c>
+      <c r="M16">
+        <v>19.64707691317583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.47695647846465</v>
+        <v>27.46763632286534</v>
       </c>
       <c r="C17">
-        <v>17.76329246009381</v>
+        <v>17.75182827988978</v>
       </c>
       <c r="D17">
-        <v>9.011323400856694</v>
+        <v>9.009958736267834</v>
       </c>
       <c r="E17">
-        <v>8.625475186879552</v>
+        <v>8.620799967695589</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.27401917321527</v>
+        <v>77.07970870824489</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>77.24841475041021</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.65643504384506</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>19.15310338862942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>10.65509237898677</v>
+      </c>
+      <c r="M17">
+        <v>19.14781983338761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.04157746721795</v>
+        <v>27.03275703859056</v>
       </c>
       <c r="C18">
-        <v>17.47426148855828</v>
+        <v>17.46332076314913</v>
       </c>
       <c r="D18">
-        <v>8.876011708896822</v>
+        <v>8.874727559708031</v>
       </c>
       <c r="E18">
-        <v>8.549309983825676</v>
+        <v>8.54478815453407</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.21820340585002</v>
+        <v>75.9929353954825</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>76.19366218940145</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.49836245529705</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.8647766266124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.49709971803284</v>
+      </c>
+      <c r="M18">
+        <v>18.85975358524458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.89399477066948</v>
+        <v>26.8853396359482</v>
       </c>
       <c r="C19">
-        <v>17.37642220096146</v>
+        <v>17.36565531896904</v>
       </c>
       <c r="D19">
-        <v>8.830095006904127</v>
+        <v>8.828837322506496</v>
       </c>
       <c r="E19">
-        <v>8.523600268037072</v>
+        <v>8.519129924761595</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.8604033671615</v>
+        <v>75.62450371407266</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75.83621663787717</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.44470659952967</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.76697138605784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.44347012067868</v>
+      </c>
+      <c r="M19">
+        <v>18.76203453506404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.55746528651305</v>
+        <v>27.54805070695905</v>
       </c>
       <c r="C20">
-        <v>17.81680509274226</v>
+        <v>17.80524234893831</v>
       </c>
       <c r="D20">
-        <v>9.036320862795238</v>
+        <v>9.034940900755531</v>
       </c>
       <c r="E20">
-        <v>8.639610708274773</v>
+        <v>8.634906870074346</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.4692975232722</v>
+        <v>77.28064622727393</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>77.44349354425631</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.68562977743571</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>19.20638615595362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10.68427192014041</v>
+      </c>
+      <c r="M20">
+        <v>19.20105338352709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.78205696678179</v>
+        <v>29.76976384181921</v>
       </c>
       <c r="C21">
-        <v>19.3040108893353</v>
+        <v>19.28948802196874</v>
       </c>
       <c r="D21">
-        <v>9.724044439217085</v>
+        <v>9.722186167538185</v>
       </c>
       <c r="E21">
-        <v>9.036034749502738</v>
+        <v>9.030503803953959</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.86748736872116</v>
+        <v>82.82765774724015</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>82.83575202208547</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.48783465690752</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.67449335862646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.48600079890091</v>
+      </c>
+      <c r="M21">
+        <v>20.66765958522566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.24271020660026</v>
+        <v>31.22820969100506</v>
       </c>
       <c r="C22">
-        <v>20.29008976313011</v>
+        <v>20.27334435816228</v>
       </c>
       <c r="D22">
-        <v>10.17237317114763</v>
+        <v>10.17013386083229</v>
       </c>
       <c r="E22">
-        <v>9.301773547490306</v>
+        <v>9.295653430384217</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.41076954889452</v>
+        <v>86.46138399175217</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>86.46138399179924</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.00965918538172</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.6339800814576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.00744494601282</v>
+      </c>
+      <c r="M22">
+        <v>21.62599241303901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.46176152859393</v>
+        <v>30.44847542448157</v>
       </c>
       <c r="C23">
-        <v>19.76188417034293</v>
+        <v>19.74635713625267</v>
       </c>
       <c r="D23">
-        <v>9.932995989453239</v>
+        <v>9.930967735965543</v>
       </c>
       <c r="E23">
-        <v>9.159206340225987</v>
+        <v>9.153406437513938</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.51669932150608</v>
+        <v>84.51962953435182</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>84.51962953435222</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.73115997575122</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>21.12143062853443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>11.72915654670318</v>
+      </c>
+      <c r="M23">
+        <v>21.11407820829257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52107022708371</v>
+        <v>27.51169841208591</v>
       </c>
       <c r="C24">
-        <v>17.79261143317854</v>
+        <v>17.78109331561995</v>
       </c>
       <c r="D24">
-        <v>9.025021359905585</v>
+        <v>9.023648329342235</v>
       </c>
       <c r="E24">
-        <v>8.633218605749999</v>
+        <v>8.628527715244907</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.38101797954036</v>
+        <v>77.18981087924473</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>77.35530432936677</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.67243329464311</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>19.18230028565823</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.6710823215006</v>
+      </c>
+      <c r="M24">
+        <v>19.17698980347259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.31798553694281</v>
+        <v>24.31190726896046</v>
       </c>
       <c r="C25">
-        <v>15.67902354763891</v>
+        <v>15.67102177842205</v>
       </c>
       <c r="D25">
-        <v>8.024648976079888</v>
+        <v>8.023792335830333</v>
       </c>
       <c r="E25">
-        <v>8.08454518513169</v>
+        <v>8.080938450484709</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.62768211648905</v>
+        <v>69.19396066369013</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.60927395409334</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.564876370813069</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>17.05413280092892</v>
+        <v>9.564397651316533</v>
+      </c>
+      <c r="M25">
+        <v>17.05054349945718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.88005937518128</v>
+        <v>30.66146152645733</v>
       </c>
       <c r="C2">
-        <v>14.08559840983267</v>
+        <v>23.77302261915047</v>
       </c>
       <c r="D2">
-        <v>7.256207216273309</v>
+        <v>12.20536473604809</v>
       </c>
       <c r="E2">
-        <v>7.686393233031248</v>
+        <v>13.20242202318712</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.13107595081985</v>
+        <v>2.077229648887747</v>
       </c>
       <c r="H2">
-        <v>63.7629793126427</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.862484418559712</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.902112079080084</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.42325359580211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>14.17820641514889</v>
+      </c>
+      <c r="O2">
+        <v>37.96932565145005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.16748084410445</v>
+        <v>28.61299637076313</v>
       </c>
       <c r="C3">
-        <v>12.97685763528419</v>
+        <v>22.10745951230746</v>
       </c>
       <c r="D3">
-        <v>6.711588941097219</v>
+        <v>11.66726061328633</v>
       </c>
       <c r="E3">
-        <v>7.422146549632172</v>
+        <v>12.63156330641323</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.88040132469686</v>
+        <v>2.094249899995662</v>
       </c>
       <c r="H3">
-        <v>59.68235863130887</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.78252634334836</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.454128607224394</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.27113092338501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>14.37176554126967</v>
+      </c>
+      <c r="O3">
+        <v>36.28842070266393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.07980484727619</v>
+        <v>27.32595774058338</v>
       </c>
       <c r="C4">
-        <v>12.27542958102939</v>
+        <v>21.05469767445191</v>
       </c>
       <c r="D4">
-        <v>6.36387338249654</v>
+        <v>11.34080147185817</v>
       </c>
       <c r="E4">
-        <v>7.260976856051547</v>
+        <v>12.2861126518577</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.19347874633259</v>
+        <v>2.10480659010631</v>
       </c>
       <c r="H4">
-        <v>57.11240349906579</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.738350447653398</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.179288758157101</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.5365593733747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>14.49647808425103</v>
+      </c>
+      <c r="O4">
+        <v>35.27549202569648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62694730288396</v>
+        <v>26.79315027332073</v>
       </c>
       <c r="C5">
-        <v>11.98392158423514</v>
+        <v>20.61796439264771</v>
       </c>
       <c r="D5">
-        <v>6.221644311630542</v>
+        <v>11.2087672840659</v>
       </c>
       <c r="E5">
-        <v>7.195522831036532</v>
+        <v>12.14661110280484</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.07846850665386</v>
+        <v>2.109143457647564</v>
       </c>
       <c r="H5">
-        <v>56.0483902196443</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.721517360525144</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.067363010449355</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.23002051531329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>14.54869118315751</v>
+      </c>
+      <c r="O5">
+        <v>34.86743306769544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.5511557584192</v>
+        <v>26.70417672047184</v>
       </c>
       <c r="C6">
-        <v>11.93516166495528</v>
+        <v>20.54497641278972</v>
       </c>
       <c r="D6">
-        <v>6.201181286101696</v>
+        <v>11.18690451865023</v>
       </c>
       <c r="E6">
-        <v>7.1846666950415</v>
+        <v>12.12352454932234</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.89209478070397</v>
+        <v>2.109865922696849</v>
       </c>
       <c r="H6">
-        <v>55.87069110723033</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.718790962950298</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.048783499951833</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.17867559969747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>14.55744303675993</v>
+      </c>
+      <c r="O6">
+        <v>34.79995929954667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.07373704328504</v>
+        <v>27.31880577948984</v>
       </c>
       <c r="C7">
-        <v>12.27152174612856</v>
+        <v>21.04883913010091</v>
       </c>
       <c r="D7">
-        <v>6.361929463406399</v>
+        <v>11.3390167217026</v>
       </c>
       <c r="E7">
-        <v>7.260093263942094</v>
+        <v>12.28422610535731</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.17852330446188</v>
+        <v>2.104864927032642</v>
       </c>
       <c r="H7">
-        <v>57.09812208854762</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.738118783264318</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.17777893960378</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.53245486480347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>14.49717671231546</v>
+      </c>
+      <c r="O7">
+        <v>35.26996974891768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.29671454547637</v>
+        <v>29.95799534797496</v>
       </c>
       <c r="C8">
-        <v>13.70728453827357</v>
+        <v>23.20485194099303</v>
       </c>
       <c r="D8">
-        <v>7.07108195102934</v>
+        <v>12.01900261600443</v>
       </c>
       <c r="E8">
-        <v>7.595022855585072</v>
+        <v>13.00452716182312</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.6809034513721</v>
+        <v>2.083081480920754</v>
       </c>
       <c r="H8">
-        <v>62.36893695298586</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.833851136563331</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.747598990801807</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.03140494273298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>14.24367263157755</v>
+      </c>
+      <c r="O8">
+        <v>37.38567713678527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.3988433783537</v>
+        <v>35.19920073255414</v>
       </c>
       <c r="C9">
-        <v>16.38448541892805</v>
+        <v>27.33617660732237</v>
       </c>
       <c r="D9">
-        <v>8.364725241555121</v>
+        <v>13.38572433944975</v>
       </c>
       <c r="E9">
-        <v>8.263668271732467</v>
+        <v>14.45977989769937</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.90930432562857</v>
+        <v>2.040770622329131</v>
       </c>
       <c r="H9">
-        <v>72.23575861537955</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.064081414157286</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.900671386961326</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.77472504493139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>13.79787061786584</v>
+      </c>
+      <c r="O9">
+        <v>41.69867180054369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.30849779373491</v>
+        <v>38.90820699674578</v>
       </c>
       <c r="C10">
-        <v>18.31139400174959</v>
+        <v>30.25843884947087</v>
       </c>
       <c r="D10">
-        <v>9.270819298018889</v>
+        <v>14.4175988611445</v>
       </c>
       <c r="E10">
-        <v>8.769073928582724</v>
+        <v>15.56364533168355</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.18040111748024</v>
+        <v>2.009194255071112</v>
       </c>
       <c r="H10">
-        <v>79.28877115798055</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.264890467610174</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.95966226003031</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.70394609147652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>13.51034654296422</v>
+      </c>
+      <c r="O10">
+        <v>44.99934510538803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.62565843655435</v>
+        <v>40.56946294575035</v>
       </c>
       <c r="C11">
-        <v>19.1926995476825</v>
+        <v>31.57023894984459</v>
       </c>
       <c r="D11">
-        <v>9.677786045861964</v>
+        <v>14.89636531589504</v>
       </c>
       <c r="E11">
-        <v>9.004524360425773</v>
+        <v>16.07707864803962</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.46822522038212</v>
+        <v>1.994507863380829</v>
       </c>
       <c r="H11">
-        <v>82.48596541609766</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.364774940160606</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.43426491830188</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.57277682764677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>13.39099461702408</v>
+      </c>
+      <c r="O11">
+        <v>46.54212519967591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.12532531580292</v>
+        <v>41.19626416996334</v>
       </c>
       <c r="C12">
-        <v>19.5286213533098</v>
+        <v>32.06571863464908</v>
       </c>
       <c r="D12">
-        <v>9.831631312632707</v>
+        <v>15.07943720477846</v>
       </c>
       <c r="E12">
-        <v>9.094779584378601</v>
+        <v>16.27360326971287</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.71423451058078</v>
+        <v>1.988876872153993</v>
       </c>
       <c r="H12">
-        <v>83.71423451058078</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.404006379352804</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.61349030482719</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.90162357685429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>13.34776185113052</v>
+      </c>
+      <c r="O12">
+        <v>47.13384276916265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.01763911375925</v>
+        <v>41.06134535544749</v>
       </c>
       <c r="C13">
-        <v>19.45614842776627</v>
+        <v>31.95904118259235</v>
       </c>
       <c r="D13">
-        <v>9.798500529231207</v>
+        <v>15.03992205705363</v>
       </c>
       <c r="E13">
-        <v>9.075286928424216</v>
+        <v>16.23117541038815</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.4457666953477</v>
+        <v>1.990093133384228</v>
       </c>
       <c r="H13">
-        <v>83.44576669534773</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.395491227941936</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.57490298367542</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.83078680775813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>13.35697946592669</v>
+      </c>
+      <c r="O13">
+        <v>47.00604159396612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.6667363043851</v>
+        <v>40.62106624053069</v>
       </c>
       <c r="C14">
-        <v>19.22028194851278</v>
+        <v>31.61101946499272</v>
       </c>
       <c r="D14">
-        <v>9.690445018687946</v>
+        <v>14.91138821252313</v>
       </c>
       <c r="E14">
-        <v>9.011925685556935</v>
+        <v>16.09320145139575</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.57068934154113</v>
+        <v>1.994046146277841</v>
       </c>
       <c r="H14">
-        <v>82.58567471045907</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.36797313323035</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.44901629690687</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.59982705931276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>13.38739634913268</v>
+      </c>
+      <c r="O14">
+        <v>46.59064499778999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.45197632087076</v>
+        <v>40.35113535144739</v>
       </c>
       <c r="C15">
-        <v>19.07614425376131</v>
+        <v>31.3977234386873</v>
       </c>
       <c r="D15">
-        <v>9.624240186129395</v>
+        <v>14.83290375164921</v>
       </c>
       <c r="E15">
-        <v>8.973268317575297</v>
+        <v>16.00897873316861</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.03494055495241</v>
+        <v>1.996457633796508</v>
       </c>
       <c r="H15">
-        <v>82.06437485310187</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.351306904171733</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.37186058072024</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.45837450158222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>13.40629416416953</v>
+      </c>
+      <c r="O15">
+        <v>46.33723469507514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.22243234705143</v>
+        <v>38.79923322690371</v>
       </c>
       <c r="C16">
-        <v>18.25401374549351</v>
+        <v>30.1724564218333</v>
       </c>
       <c r="D16">
-        <v>9.244156734146991</v>
+        <v>14.38653190868405</v>
       </c>
       <c r="E16">
-        <v>8.753821494488859</v>
+        <v>15.53035527574041</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.96543753521449</v>
+        <v>2.010145698885592</v>
       </c>
       <c r="H16">
-        <v>79.07989089976965</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.258548930188904</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.92854446385695</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.64707691317583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>13.51840198048991</v>
+      </c>
+      <c r="O16">
+        <v>44.8994737220009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.46763632286534</v>
+        <v>37.8414594836061</v>
       </c>
       <c r="C17">
-        <v>17.75182827988978</v>
+        <v>29.41709508581372</v>
       </c>
       <c r="D17">
-        <v>9.009958736267834</v>
+        <v>14.11535405333158</v>
       </c>
       <c r="E17">
-        <v>8.620799967695589</v>
+        <v>15.23991368904513</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.07970870824489</v>
+        <v>2.018445483838812</v>
       </c>
       <c r="H17">
-        <v>77.24841475041021</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.203945860232527</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.65509237898677</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.14781983338761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>13.59030778935967</v>
+      </c>
+      <c r="O17">
+        <v>44.02898625163981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.03275703859056</v>
+        <v>37.28802086173671</v>
       </c>
       <c r="C18">
-        <v>17.46332076314913</v>
+        <v>28.98088791076578</v>
       </c>
       <c r="D18">
-        <v>8.874727559708031</v>
+        <v>13.96022761922634</v>
       </c>
       <c r="E18">
-        <v>8.54478815453407</v>
+        <v>15.07388403692154</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.9929353954825</v>
+        <v>2.02319064637635</v>
       </c>
       <c r="H18">
-        <v>76.19366218940145</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.173330059296933</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.49709971803284</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.85975358524458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>13.63271994818361</v>
+      </c>
+      <c r="O18">
+        <v>43.53207114551787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.8853396359482</v>
+        <v>37.10015910660095</v>
       </c>
       <c r="C19">
-        <v>17.36565531896904</v>
+        <v>28.83286305642991</v>
       </c>
       <c r="D19">
-        <v>8.828837322506496</v>
+        <v>13.90783942073909</v>
       </c>
       <c r="E19">
-        <v>8.519129924761595</v>
+        <v>15.01783329963041</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.62450371407266</v>
+        <v>2.024792977791309</v>
       </c>
       <c r="H19">
-        <v>75.83621663787717</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.163095041045374</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.44347012067868</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.76203453506404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>13.64725264289933</v>
+      </c>
+      <c r="O19">
+        <v>43.36443150890717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.54805070695905</v>
+        <v>37.94367092167331</v>
       </c>
       <c r="C20">
-        <v>17.80524234893831</v>
+        <v>29.49767693863683</v>
       </c>
       <c r="D20">
-        <v>9.034940900755531</v>
+        <v>14.14413101719494</v>
       </c>
       <c r="E20">
-        <v>8.634906870074346</v>
+        <v>15.27072270688866</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.28064622727393</v>
+        <v>2.017565074311227</v>
       </c>
       <c r="H20">
-        <v>77.44349354425631</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.209675477820544</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.68427192014041</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.20105338352709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>13.58254219399159</v>
+      </c>
+      <c r="O20">
+        <v>44.12125162153305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.76976384181921</v>
+        <v>40.7504352477414</v>
       </c>
       <c r="C21">
-        <v>19.28948802196874</v>
+        <v>31.71326472591055</v>
       </c>
       <c r="D21">
-        <v>9.722186167538185</v>
+        <v>14.94908941821361</v>
       </c>
       <c r="E21">
-        <v>9.030503803953959</v>
+        <v>16.1336661481317</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.82765774724015</v>
+        <v>1.992887152518534</v>
       </c>
       <c r="H21">
-        <v>82.83575202208547</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.376016005541782</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.48600079890091</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.66765958522566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>13.37840591857904</v>
+      </c>
+      <c r="O21">
+        <v>46.712438395917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.22820969100506</v>
+        <v>42.57250463424448</v>
       </c>
       <c r="C22">
-        <v>20.27334435816228</v>
+        <v>33.15471526258331</v>
       </c>
       <c r="D22">
-        <v>10.17013386083229</v>
+        <v>15.48583136131911</v>
       </c>
       <c r="E22">
-        <v>9.295653430384217</v>
+        <v>16.71023572132474</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.46138399175217</v>
+        <v>1.976337875853978</v>
       </c>
       <c r="H22">
-        <v>86.46138399179924</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.493052451853544</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.00744494601282</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.62599241303901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>13.25665144224531</v>
+      </c>
+      <c r="O22">
+        <v>48.45078604329181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.44847542448157</v>
+        <v>41.60057042707928</v>
       </c>
       <c r="C23">
-        <v>19.74635713625267</v>
+        <v>32.38548069641588</v>
       </c>
       <c r="D23">
-        <v>9.930967735965543</v>
+        <v>15.19820352690971</v>
       </c>
       <c r="E23">
-        <v>9.153406437513938</v>
+        <v>16.40115356369424</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.51962953435182</v>
+        <v>1.985218314531033</v>
       </c>
       <c r="H23">
-        <v>84.51962953435222</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.429753967186727</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.72915654670318</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>21.11407820829257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>13.32043758263934</v>
+      </c>
+      <c r="O23">
+        <v>47.51822957884633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.51169841208591</v>
+        <v>37.89746996202166</v>
       </c>
       <c r="C24">
-        <v>17.78109331561995</v>
+        <v>29.46125201534538</v>
       </c>
       <c r="D24">
-        <v>9.023648329342235</v>
+        <v>14.13111856075375</v>
       </c>
       <c r="E24">
-        <v>8.628527715244907</v>
+        <v>15.25679102735093</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.18981087924473</v>
+        <v>2.017963188306692</v>
       </c>
       <c r="H24">
-        <v>77.35530432936677</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.207082712861653</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.6710823215006</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.17698980347259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>13.58604970163934</v>
+      </c>
+      <c r="O24">
+        <v>44.07952753295994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.31190726896046</v>
+        <v>33.8024159013206</v>
       </c>
       <c r="C25">
-        <v>15.67102177842205</v>
+        <v>26.23768901613495</v>
       </c>
       <c r="D25">
-        <v>8.023792335830333</v>
+        <v>13.01191860427657</v>
       </c>
       <c r="E25">
-        <v>8.080938450484709</v>
+        <v>14.06091108984768</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.19396066369013</v>
+        <v>2.052241261585939</v>
       </c>
       <c r="H25">
-        <v>69.60927395409334</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.996714184425504</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.564397651316533</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.05054349945718</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.91220852785114</v>
+      </c>
+      <c r="O25">
+        <v>40.51189445497816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.66146152645733</v>
+        <v>13.12099110917422</v>
       </c>
       <c r="C2">
-        <v>23.77302261915047</v>
+        <v>7.091057890247726</v>
       </c>
       <c r="D2">
-        <v>12.20536473604809</v>
+        <v>7.107821119820877</v>
       </c>
       <c r="E2">
-        <v>13.20242202318712</v>
+        <v>14.17630777623405</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.077229648887747</v>
+        <v>2.091205602908706</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.862484418559712</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.57183825379999</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.69058656952116</v>
       </c>
       <c r="N2">
-        <v>14.17820641514889</v>
+        <v>12.70534179921295</v>
       </c>
       <c r="O2">
-        <v>37.96932565145005</v>
+        <v>17.841544549457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.61299637076313</v>
+        <v>12.23699065865845</v>
       </c>
       <c r="C3">
-        <v>22.10745951230746</v>
+        <v>6.72459342259851</v>
       </c>
       <c r="D3">
-        <v>11.66726061328633</v>
+        <v>6.61559003186207</v>
       </c>
       <c r="E3">
-        <v>12.63156330641323</v>
+        <v>13.31539503663414</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.094249899995662</v>
+        <v>2.096860099852955</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.78252634334836</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.86975223009347</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.72143705359957</v>
       </c>
       <c r="N3">
-        <v>14.37176554126967</v>
+        <v>12.91962274042157</v>
       </c>
       <c r="O3">
-        <v>36.28842070266393</v>
+        <v>17.62377875841327</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.32595774058338</v>
+        <v>11.66315608656184</v>
       </c>
       <c r="C4">
-        <v>21.05469767445191</v>
+        <v>6.489397123200394</v>
       </c>
       <c r="D4">
-        <v>11.34080147185817</v>
+        <v>6.296485643454855</v>
       </c>
       <c r="E4">
-        <v>12.2861126518577</v>
+        <v>12.77052730053023</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.10480659010631</v>
+        <v>2.100435416911067</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.738350447653398</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.41592609825303</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.09490600974828</v>
       </c>
       <c r="N4">
-        <v>14.49647808425103</v>
+        <v>13.05429844387223</v>
       </c>
       <c r="O4">
-        <v>35.27549202569648</v>
+        <v>17.50388317306125</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.79315027332073</v>
+        <v>11.42145261599167</v>
       </c>
       <c r="C5">
-        <v>20.61796439264771</v>
+        <v>6.391032361845221</v>
       </c>
       <c r="D5">
-        <v>11.2087672840659</v>
+        <v>6.181601406231291</v>
       </c>
       <c r="E5">
-        <v>12.14661110280484</v>
+        <v>12.54458281440224</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.109143457647564</v>
+        <v>2.101919132576436</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.721517360525144</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.22528273691056</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.83162782479093</v>
       </c>
       <c r="N5">
-        <v>14.54869118315751</v>
+        <v>13.10997948857166</v>
       </c>
       <c r="O5">
-        <v>34.86743306769544</v>
+        <v>17.45842306241847</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.70417672047184</v>
+        <v>11.3808416583721</v>
       </c>
       <c r="C6">
-        <v>20.54497641278972</v>
+        <v>6.374548168532349</v>
       </c>
       <c r="D6">
-        <v>11.18690451865023</v>
+        <v>6.162522316438078</v>
       </c>
       <c r="E6">
-        <v>12.12352454932234</v>
+        <v>12.50683532876485</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.109865922696849</v>
+        <v>2.102167138606134</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.718790962950298</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.19328259965072</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.78742858218464</v>
       </c>
       <c r="N6">
-        <v>14.55744303675993</v>
+        <v>13.11927411177823</v>
       </c>
       <c r="O6">
-        <v>34.79995929954667</v>
+        <v>17.45107733842715</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.31880577948984</v>
+        <v>11.65992828645685</v>
       </c>
       <c r="C7">
-        <v>21.04883913010091</v>
+        <v>6.488080683978081</v>
       </c>
       <c r="D7">
-        <v>11.3390167217026</v>
+        <v>6.294691586898694</v>
       </c>
       <c r="E7">
-        <v>12.28422610535731</v>
+        <v>12.76749567156625</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.104864927032642</v>
+        <v>2.100455317581975</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.738118783264318</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.41337808969118</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.09138764219025</v>
       </c>
       <c r="N7">
-        <v>14.49717671231546</v>
+        <v>13.05504611612247</v>
       </c>
       <c r="O7">
-        <v>35.26996974891768</v>
+        <v>17.50325642774562</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.95799534797496</v>
+        <v>12.82260090530736</v>
       </c>
       <c r="C8">
-        <v>23.20485194099303</v>
+        <v>6.966835993377191</v>
       </c>
       <c r="D8">
-        <v>12.01900261600443</v>
+        <v>6.941580468994732</v>
       </c>
       <c r="E8">
-        <v>13.00452716182312</v>
+        <v>13.88293505271259</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.083081480920754</v>
+        <v>2.093134260838862</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.833851136563331</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.33448314821474</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.36292317805161</v>
       </c>
       <c r="N8">
-        <v>14.24367263157755</v>
+        <v>12.77859240667328</v>
       </c>
       <c r="O8">
-        <v>37.38567713678527</v>
+        <v>17.76354911183501</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.19920073255414</v>
+        <v>14.85867984404077</v>
       </c>
       <c r="C9">
-        <v>27.33617660732237</v>
+        <v>7.823624159094085</v>
       </c>
       <c r="D9">
-        <v>13.38572433944975</v>
+        <v>8.077869649765072</v>
       </c>
       <c r="E9">
-        <v>14.45977989769937</v>
+        <v>16.06945867900984</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.040770622329131</v>
+        <v>2.079563046504361</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.064081414157286</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.96038039715631</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.60937031469145</v>
       </c>
       <c r="N9">
-        <v>13.79787061786584</v>
+        <v>12.26025722020655</v>
       </c>
       <c r="O9">
-        <v>41.69867180054369</v>
+        <v>18.38657221933725</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38.90820699674578</v>
+        <v>16.20951811594604</v>
       </c>
       <c r="C10">
-        <v>30.25843884947087</v>
+        <v>8.402140943654262</v>
       </c>
       <c r="D10">
-        <v>14.4175988611445</v>
+        <v>8.834392304517955</v>
       </c>
       <c r="E10">
-        <v>15.56364533168355</v>
+        <v>17.65781134270926</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.009194255071112</v>
+        <v>2.070018489106704</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.264890467610174</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.04583155690248</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.11354543350636</v>
       </c>
       <c r="N10">
-        <v>13.51034654296422</v>
+        <v>11.89272446184061</v>
       </c>
       <c r="O10">
-        <v>44.99934510538803</v>
+        <v>18.91658573674056</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>40.56946294575035</v>
+        <v>16.79338825704755</v>
       </c>
       <c r="C11">
-        <v>31.57023894984459</v>
+        <v>8.654228023325073</v>
       </c>
       <c r="D11">
-        <v>14.89636531589504</v>
+        <v>9.162077761170536</v>
       </c>
       <c r="E11">
-        <v>16.07707864803962</v>
+        <v>18.35137503585487</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.994507863380829</v>
+        <v>2.065756418423762</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.364774940160606</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.51631024381605</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.76716137476678</v>
       </c>
       <c r="N11">
-        <v>13.39099461702408</v>
+        <v>11.72814501110858</v>
       </c>
       <c r="O11">
-        <v>46.54212519967591</v>
+        <v>19.17407132982547</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.19626416996334</v>
+        <v>17.01015174962031</v>
       </c>
       <c r="C12">
-        <v>32.06571863464908</v>
+        <v>8.748099532206126</v>
       </c>
       <c r="D12">
-        <v>15.07943720477846</v>
+        <v>9.283841765538337</v>
       </c>
       <c r="E12">
-        <v>16.27360326971287</v>
+        <v>18.60997412575969</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.988876872153993</v>
+        <v>2.064152838759555</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.404006379352804</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.69115686644635</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.01036195197307</v>
       </c>
       <c r="N12">
-        <v>13.34776185113052</v>
+        <v>11.66617775786124</v>
       </c>
       <c r="O12">
-        <v>47.13384276916265</v>
+        <v>19.27397974418023</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.06134535544749</v>
+        <v>16.96365952659764</v>
       </c>
       <c r="C13">
-        <v>31.95904118259235</v>
+        <v>8.72795311364149</v>
       </c>
       <c r="D13">
-        <v>15.03992205705363</v>
+        <v>9.257720323156054</v>
       </c>
       <c r="E13">
-        <v>16.23117541038815</v>
+        <v>18.55445759552088</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.990093133384228</v>
+        <v>2.064497755385082</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.395491227941936</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.65364722498003</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>18.95817439690073</v>
       </c>
       <c r="N13">
-        <v>13.35697946592669</v>
+        <v>11.67950802827998</v>
       </c>
       <c r="O13">
-        <v>47.00604159396612</v>
+        <v>19.25235497976471</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40.62106624053069</v>
+        <v>16.81130799756857</v>
       </c>
       <c r="C14">
-        <v>31.61101946499272</v>
+        <v>8.661982669061812</v>
       </c>
       <c r="D14">
-        <v>14.91138821252313</v>
+        <v>9.172141665292878</v>
       </c>
       <c r="E14">
-        <v>16.09320145139575</v>
+        <v>18.37273028719219</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.994046146277841</v>
+        <v>2.065624289656821</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.36797313323035</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.53076115179205</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.7872554196031</v>
       </c>
       <c r="N14">
-        <v>13.38739634913268</v>
+        <v>11.72303992038739</v>
       </c>
       <c r="O14">
-        <v>46.59064499778999</v>
+        <v>19.18224239376473</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.35113535144739</v>
+        <v>16.7174258090857</v>
       </c>
       <c r="C15">
-        <v>31.3977234386873</v>
+        <v>8.62136728004406</v>
       </c>
       <c r="D15">
-        <v>14.83290375164921</v>
+        <v>9.119421026567203</v>
       </c>
       <c r="E15">
-        <v>16.00897873316861</v>
+        <v>18.26089520355866</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.996457633796508</v>
+        <v>2.066315641317682</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.351306904171733</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.45505958525274</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.68200438643202</v>
       </c>
       <c r="N15">
-        <v>13.40629416416953</v>
+        <v>11.7497501475981</v>
       </c>
       <c r="O15">
-        <v>46.33723469507514</v>
+        <v>19.13961094652027</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>38.79923322690371</v>
+        <v>16.17075027510362</v>
       </c>
       <c r="C16">
-        <v>30.1724564218333</v>
+        <v>8.385443746651383</v>
       </c>
       <c r="D16">
-        <v>14.38653190868405</v>
+        <v>8.812649744299677</v>
       </c>
       <c r="E16">
-        <v>15.53035527574041</v>
+        <v>17.61191285925704</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.010145698885592</v>
+        <v>2.070298538974341</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.258548930188904</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.01461883647242</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.07022157768875</v>
       </c>
       <c r="N16">
-        <v>13.51840198048991</v>
+        <v>11.90353095307691</v>
       </c>
       <c r="O16">
-        <v>44.8994737220009</v>
+        <v>18.90009224582342</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>37.8414594836061</v>
+        <v>15.82758502657595</v>
       </c>
       <c r="C17">
-        <v>29.41709508581372</v>
+        <v>8.237875357765779</v>
       </c>
       <c r="D17">
-        <v>14.11535405333158</v>
+        <v>8.620269966410978</v>
       </c>
       <c r="E17">
-        <v>15.23991368904513</v>
+        <v>17.20644762399149</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.018445483838812</v>
+        <v>2.072761598368452</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.203945860232527</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.73847943291523</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.68713076121979</v>
       </c>
       <c r="N17">
-        <v>13.59030778935967</v>
+        <v>11.99852522207418</v>
       </c>
       <c r="O17">
-        <v>44.02898625163981</v>
+        <v>18.75738565307932</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.28802086173671</v>
+        <v>15.62731775872737</v>
       </c>
       <c r="C18">
-        <v>28.98088791076578</v>
+        <v>8.151953976998703</v>
       </c>
       <c r="D18">
-        <v>13.96022761922634</v>
+        <v>8.508066137062167</v>
       </c>
       <c r="E18">
-        <v>15.07388403692154</v>
+        <v>16.97049794725022</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.02319064637635</v>
+        <v>2.074185866457374</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.173330059296933</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.57745573540629</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.46389669832897</v>
       </c>
       <c r="N18">
-        <v>13.63271994818361</v>
+        <v>12.05341057581186</v>
       </c>
       <c r="O18">
-        <v>43.53207114551787</v>
+        <v>18.67684356339188</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.10015910660095</v>
+        <v>15.55901267997215</v>
       </c>
       <c r="C19">
-        <v>28.83286305642991</v>
+        <v>8.122683119805762</v>
       </c>
       <c r="D19">
-        <v>13.90783942073909</v>
+        <v>8.469807983347129</v>
       </c>
       <c r="E19">
-        <v>15.01783329963041</v>
+        <v>16.89013564242583</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.024792977791309</v>
+        <v>2.074669433469599</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.163095041045374</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.52255776869928</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.38781425706834</v>
       </c>
       <c r="N19">
-        <v>13.64725264289933</v>
+        <v>12.07203688724774</v>
       </c>
       <c r="O19">
-        <v>43.36443150890717</v>
+        <v>18.64983620927085</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>37.94367092167331</v>
+        <v>15.8644139263749</v>
       </c>
       <c r="C20">
-        <v>29.49767693863683</v>
+        <v>8.253692291179462</v>
       </c>
       <c r="D20">
-        <v>14.14413101719494</v>
+        <v>8.640909446022864</v>
       </c>
       <c r="E20">
-        <v>15.27072270688866</v>
+        <v>17.24989243832202</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.017565074311227</v>
+        <v>2.072498624544506</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.209675477820544</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.76810193647284</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.72820990161773</v>
       </c>
       <c r="N20">
-        <v>13.58254219399159</v>
+        <v>11.9883874876768</v>
       </c>
       <c r="O20">
-        <v>44.12125162153305</v>
+        <v>18.77241737975038</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40.7504352477414</v>
+        <v>16.85617442515112</v>
       </c>
       <c r="C21">
-        <v>31.71326472591055</v>
+        <v>8.681402821704841</v>
       </c>
       <c r="D21">
-        <v>14.94908941821361</v>
+        <v>9.1973408887104</v>
       </c>
       <c r="E21">
-        <v>16.1336661481317</v>
+        <v>18.42621650863569</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.992887152518534</v>
+        <v>2.065293126880757</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.376016005541782</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.56694536878187</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.8375746152419</v>
       </c>
       <c r="N21">
-        <v>13.37840591857904</v>
+        <v>11.71024406334639</v>
       </c>
       <c r="O21">
-        <v>46.712438395917</v>
+        <v>19.20277052419253</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>42.57250463424448</v>
+        <v>17.47911187793969</v>
       </c>
       <c r="C22">
-        <v>33.15471526258331</v>
+        <v>8.951684972689367</v>
       </c>
       <c r="D22">
-        <v>15.48583136131911</v>
+        <v>9.547480473334316</v>
       </c>
       <c r="E22">
-        <v>16.71023572132474</v>
+        <v>19.17154251973565</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.976337875853978</v>
+        <v>2.060643811633376</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.493052451853544</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.0697443030942</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.53754003632039</v>
       </c>
       <c r="N22">
-        <v>13.25665144224531</v>
+        <v>11.53052369756532</v>
       </c>
       <c r="O22">
-        <v>48.45078604329181</v>
+        <v>19.4980674638937</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41.60057042707928</v>
+        <v>17.14892351319032</v>
       </c>
       <c r="C23">
-        <v>32.38548069641588</v>
+        <v>8.808273379619884</v>
       </c>
       <c r="D23">
-        <v>15.19820352690971</v>
+        <v>9.361826531958481</v>
       </c>
       <c r="E23">
-        <v>16.40115356369424</v>
+        <v>18.77584933396724</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.985218314531033</v>
+        <v>2.063120144671937</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.429753967186727</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.80314228836722</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.16621492355824</v>
       </c>
       <c r="N23">
-        <v>13.32043758263934</v>
+        <v>11.62626175881933</v>
       </c>
       <c r="O23">
-        <v>47.51822957884633</v>
+        <v>19.33916152540021</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>37.89746996202166</v>
+        <v>15.84777285866618</v>
       </c>
       <c r="C24">
-        <v>29.46125201534538</v>
+        <v>8.246544827184014</v>
       </c>
       <c r="D24">
-        <v>14.13111856075375</v>
+        <v>8.631583330849715</v>
       </c>
       <c r="E24">
-        <v>15.25679102735093</v>
+        <v>17.23025990058861</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.017963188306692</v>
+        <v>2.072617489317389</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.207082712861653</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.75471666800504</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.70964734277677</v>
       </c>
       <c r="N24">
-        <v>13.58604970163934</v>
+        <v>11.99296990899833</v>
       </c>
       <c r="O24">
-        <v>44.07952753295994</v>
+        <v>18.76561686193675</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>33.8024159013206</v>
+        <v>14.33361515803167</v>
       </c>
       <c r="C25">
-        <v>26.23768901613495</v>
+        <v>7.60075510555081</v>
       </c>
       <c r="D25">
-        <v>13.01191860427657</v>
+        <v>7.78439790214383</v>
       </c>
       <c r="E25">
-        <v>14.06091108984768</v>
+        <v>15.45803584934342</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.052241261585939</v>
+        <v>2.083155561025494</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.996714184425504</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.53978833178537</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.02767898948749</v>
       </c>
       <c r="N25">
-        <v>13.91220852785114</v>
+        <v>12.39805834902581</v>
       </c>
       <c r="O25">
-        <v>40.51189445497816</v>
+        <v>18.20557486898126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.12099110917422</v>
+        <v>10.13519245628993</v>
       </c>
       <c r="C2">
-        <v>7.091057890247726</v>
+        <v>4.758500477031853</v>
       </c>
       <c r="D2">
-        <v>7.107821119820877</v>
+        <v>5.995016904908919</v>
       </c>
       <c r="E2">
-        <v>14.17630777623405</v>
+        <v>12.1428478763065</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.091205602908706</v>
+        <v>3.652230012369585</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.57183825379999</v>
+        <v>9.454700929734088</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.69058656952116</v>
+        <v>14.08188274895984</v>
       </c>
       <c r="N2">
-        <v>12.70534179921295</v>
+        <v>19.5942677194054</v>
       </c>
       <c r="O2">
-        <v>17.841544549457</v>
+        <v>24.96810809532453</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.23699065865845</v>
+        <v>9.879148322919058</v>
       </c>
       <c r="C3">
-        <v>6.72459342259851</v>
+        <v>4.58263332929997</v>
       </c>
       <c r="D3">
-        <v>6.61559003186207</v>
+        <v>5.878042332853814</v>
       </c>
       <c r="E3">
-        <v>13.31539503663414</v>
+        <v>11.92322238730697</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.096860099852955</v>
+        <v>3.654334734380805</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.86975223009347</v>
+        <v>9.286195383706158</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.72143705359957</v>
+        <v>13.9216510842417</v>
       </c>
       <c r="N3">
-        <v>12.91962274042157</v>
+        <v>19.65659305317522</v>
       </c>
       <c r="O3">
-        <v>17.62377875841327</v>
+        <v>25.00055198984928</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.66315608656184</v>
+        <v>9.720958383948156</v>
       </c>
       <c r="C4">
-        <v>6.489397123200394</v>
+        <v>4.470119743864907</v>
       </c>
       <c r="D4">
-        <v>6.296485643454855</v>
+        <v>5.806809299308139</v>
       </c>
       <c r="E4">
-        <v>12.77052730053023</v>
+        <v>11.79045061519949</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.100435416911067</v>
+        <v>3.655695490515261</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.41592609825303</v>
+        <v>9.183274447216803</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.09490600974828</v>
+        <v>13.82599991482625</v>
       </c>
       <c r="N4">
-        <v>13.05429844387223</v>
+        <v>19.69668222208373</v>
       </c>
       <c r="O4">
-        <v>17.50388317306125</v>
+        <v>25.02588845507682</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.42145261599167</v>
+        <v>9.656353297329114</v>
       </c>
       <c r="C5">
-        <v>6.391032361845221</v>
+        <v>4.423168367283535</v>
       </c>
       <c r="D5">
-        <v>6.181601406231291</v>
+        <v>5.777974211134683</v>
       </c>
       <c r="E5">
-        <v>12.54458281440224</v>
+        <v>11.73694725824284</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.101919132576436</v>
+        <v>3.656267277558416</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.22528273691056</v>
+        <v>9.141527830186451</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.83162782479093</v>
+        <v>13.7877525132647</v>
       </c>
       <c r="N5">
-        <v>13.10997948857166</v>
+        <v>19.71347800461593</v>
       </c>
       <c r="O5">
-        <v>17.45842306241847</v>
+        <v>25.03757258777134</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.3808416583721</v>
+        <v>9.645620268173147</v>
       </c>
       <c r="C6">
-        <v>6.374548168532349</v>
+        <v>4.415306823394186</v>
       </c>
       <c r="D6">
-        <v>6.162522316438078</v>
+        <v>5.77319913129264</v>
       </c>
       <c r="E6">
-        <v>12.50683532876485</v>
+        <v>11.72810174648161</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.102167138606134</v>
+        <v>3.656363266945607</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.19328259965072</v>
+        <v>9.134609292334938</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.78742858218464</v>
+        <v>13.78144699016858</v>
       </c>
       <c r="N6">
-        <v>13.11927411177823</v>
+        <v>19.71629469589326</v>
       </c>
       <c r="O6">
-        <v>17.45107733842715</v>
+        <v>25.03959474626331</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65992828645685</v>
+        <v>9.720087528493391</v>
       </c>
       <c r="C7">
-        <v>6.488080683978081</v>
+        <v>4.469490946064184</v>
       </c>
       <c r="D7">
-        <v>6.294691586898694</v>
+        <v>5.806419578734295</v>
       </c>
       <c r="E7">
-        <v>12.76749567156625</v>
+        <v>11.7897265074149</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.100455317581975</v>
+        <v>3.655703131843975</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.41337808969118</v>
+        <v>9.182710573025144</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.09138764219025</v>
+        <v>13.82548107889402</v>
       </c>
       <c r="N7">
-        <v>13.05504611612247</v>
+        <v>19.69690687537639</v>
       </c>
       <c r="O7">
-        <v>17.50325642774562</v>
+        <v>25.02604053125065</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.82260090530736</v>
+        <v>10.04717267927132</v>
       </c>
       <c r="C8">
-        <v>6.966835993377191</v>
+        <v>4.698823159373088</v>
       </c>
       <c r="D8">
-        <v>6.941580468994732</v>
+        <v>5.954588296736801</v>
       </c>
       <c r="E8">
-        <v>13.88293505271259</v>
+        <v>12.0667372427582</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.093134260838862</v>
+        <v>3.652941547829244</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.33448314821474</v>
+        <v>9.396522416906162</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.36292317805161</v>
+        <v>14.02609493841267</v>
       </c>
       <c r="N8">
-        <v>12.77859240667328</v>
+        <v>19.615380222497</v>
       </c>
       <c r="O8">
-        <v>17.76354911183501</v>
+        <v>24.97816930928805</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.85867984404077</v>
+        <v>10.67647706199697</v>
       </c>
       <c r="C9">
-        <v>7.823624159094085</v>
+        <v>5.111155798004337</v>
       </c>
       <c r="D9">
-        <v>8.077869649765072</v>
+        <v>6.247895321285775</v>
       </c>
       <c r="E9">
-        <v>16.06945867900984</v>
+        <v>12.62295678013585</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.079563046504361</v>
+        <v>3.648066641703836</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.96038039715631</v>
+        <v>9.817590355241872</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.60937031469145</v>
+        <v>14.43915999714971</v>
       </c>
       <c r="N9">
-        <v>12.26025722020655</v>
+        <v>19.46990216304938</v>
       </c>
       <c r="O9">
-        <v>18.38657221933725</v>
+        <v>24.9273625578363</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20951811594604</v>
+        <v>11.12600331166828</v>
       </c>
       <c r="C10">
-        <v>8.402140943654262</v>
+        <v>5.389669776109421</v>
       </c>
       <c r="D10">
-        <v>8.834392304517955</v>
+        <v>6.462549349015497</v>
       </c>
       <c r="E10">
-        <v>17.65781134270926</v>
+        <v>13.03491072452392</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.070018489106704</v>
+        <v>3.64481100634433</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.04583155690248</v>
+        <v>10.12475119710934</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.11354543350636</v>
+        <v>14.75186252390875</v>
       </c>
       <c r="N10">
-        <v>11.89272446184061</v>
+        <v>19.37171733991818</v>
       </c>
       <c r="O10">
-        <v>18.91658573674056</v>
+        <v>24.91639876611451</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.79338825704755</v>
+        <v>11.32668854197044</v>
       </c>
       <c r="C11">
-        <v>8.654228023325073</v>
+        <v>5.510797533448574</v>
       </c>
       <c r="D11">
-        <v>9.162077761170536</v>
+        <v>6.559515806087353</v>
       </c>
       <c r="E11">
-        <v>18.35137503585487</v>
+        <v>13.2220891048106</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.065756418423762</v>
+        <v>3.643399951088615</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.51631024381605</v>
+        <v>10.26334853113489</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.76716137476678</v>
+        <v>14.8955253989997</v>
       </c>
       <c r="N11">
-        <v>11.72814501110858</v>
+        <v>19.32892262710209</v>
       </c>
       <c r="O11">
-        <v>19.17407132982547</v>
+        <v>24.91714911306163</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.01015174962031</v>
+        <v>11.40205811038121</v>
       </c>
       <c r="C12">
-        <v>8.748099532206126</v>
+        <v>5.555846026265828</v>
       </c>
       <c r="D12">
-        <v>9.283841765538337</v>
+        <v>6.596097218077378</v>
       </c>
       <c r="E12">
-        <v>18.60997412575969</v>
+        <v>13.29286148379976</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.064152838759555</v>
+        <v>3.642875622063705</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.69115686644635</v>
+        <v>10.31561693391719</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.01036195197307</v>
+        <v>14.9500801466743</v>
       </c>
       <c r="N12">
-        <v>11.66617775786124</v>
+        <v>19.3129850945335</v>
       </c>
       <c r="O12">
-        <v>19.27397974418023</v>
+        <v>24.91825850367742</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96365952659764</v>
+        <v>11.38585492478071</v>
       </c>
       <c r="C13">
-        <v>8.72795311364149</v>
+        <v>5.546180769042863</v>
       </c>
       <c r="D13">
-        <v>9.257720323156054</v>
+        <v>6.588225490543917</v>
       </c>
       <c r="E13">
-        <v>18.55445759552088</v>
+        <v>13.27762536681526</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.064497755385082</v>
+        <v>3.642988101456778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.65364722498003</v>
+        <v>10.30437038906672</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.95817439690073</v>
+        <v>14.93832480981983</v>
       </c>
       <c r="N13">
-        <v>11.67950802827998</v>
+        <v>19.31640562857028</v>
       </c>
       <c r="O13">
-        <v>19.25235497976471</v>
+        <v>24.91798287648297</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.81130799756857</v>
+        <v>11.33290220425921</v>
       </c>
       <c r="C14">
-        <v>8.661982669061812</v>
+        <v>5.514520232490677</v>
       </c>
       <c r="D14">
-        <v>9.172141665292878</v>
+        <v>6.562528360474934</v>
       </c>
       <c r="E14">
-        <v>18.37273028719219</v>
+        <v>13.22791418018298</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.065624289656821</v>
+        <v>3.643356613964138</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.53076115179205</v>
+        <v>10.26765329346657</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.7872554196031</v>
+        <v>14.90001087682455</v>
       </c>
       <c r="N14">
-        <v>11.72303992038739</v>
+        <v>19.32760607342653</v>
       </c>
       <c r="O14">
-        <v>19.18224239376473</v>
+        <v>24.91722384504167</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.7174258090857</v>
+        <v>11.30038345455596</v>
       </c>
       <c r="C15">
-        <v>8.62136728004406</v>
+        <v>5.495019939087668</v>
       </c>
       <c r="D15">
-        <v>9.119421026567203</v>
+        <v>6.546769051849777</v>
       </c>
       <c r="E15">
-        <v>18.26089520355866</v>
+        <v>13.1974483727211</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.066315641317682</v>
+        <v>3.643583640191699</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.45505958525274</v>
+        <v>10.2451334419069</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.68200438643202</v>
+        <v>14.87656088944241</v>
       </c>
       <c r="N15">
-        <v>11.7497501475981</v>
+        <v>19.33450152744575</v>
       </c>
       <c r="O15">
-        <v>19.13961094652027</v>
+        <v>24.91686638391389</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.17075027510362</v>
+        <v>11.11280463162577</v>
       </c>
       <c r="C16">
-        <v>8.385443746651383</v>
+        <v>5.381640023301248</v>
       </c>
       <c r="D16">
-        <v>8.812649744299677</v>
+        <v>6.4561952148234</v>
       </c>
       <c r="E16">
-        <v>17.61191285925704</v>
+        <v>13.02266713550346</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.070298538974341</v>
+        <v>3.644904625261148</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.01461883647242</v>
+        <v>10.11566620269833</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.07022157768875</v>
+        <v>14.74249792538242</v>
       </c>
       <c r="N16">
-        <v>11.90353095307691</v>
+        <v>19.3745516182113</v>
       </c>
       <c r="O16">
-        <v>18.90009224582342</v>
+        <v>24.91646521460483</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.82758502657595</v>
+        <v>10.9966984796084</v>
       </c>
       <c r="C17">
-        <v>8.237875357765779</v>
+        <v>5.310644129284494</v>
       </c>
       <c r="D17">
-        <v>8.620269966410978</v>
+        <v>6.400427765754794</v>
       </c>
       <c r="E17">
-        <v>17.20644762399149</v>
+        <v>12.91533257054175</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.072761598368452</v>
+        <v>3.645732885683918</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.73847943291523</v>
+        <v>10.03591411853283</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.68713076121979</v>
+        <v>14.66058048536824</v>
       </c>
       <c r="N17">
-        <v>11.99852522207418</v>
+        <v>19.39959929068424</v>
       </c>
       <c r="O17">
-        <v>18.75738565307932</v>
+        <v>24.91768898701025</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.62731775872737</v>
+        <v>10.92956327140164</v>
       </c>
       <c r="C18">
-        <v>8.151953976998703</v>
+        <v>5.269285874031556</v>
       </c>
       <c r="D18">
-        <v>8.508066137062167</v>
+        <v>6.368289980585502</v>
       </c>
       <c r="E18">
-        <v>16.97049794725022</v>
+        <v>12.85358008063536</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.074185866457374</v>
+        <v>3.646215866224357</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.57745573540629</v>
+        <v>9.989939305225629</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.46389669832897</v>
+        <v>14.61359972902387</v>
       </c>
       <c r="N18">
-        <v>12.05341057581186</v>
+        <v>19.41418212757946</v>
       </c>
       <c r="O18">
-        <v>18.67684356339188</v>
+        <v>24.91893296428978</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.55901267997215</v>
+        <v>10.90677412815501</v>
       </c>
       <c r="C19">
-        <v>8.122683119805762</v>
+        <v>5.255193430347829</v>
       </c>
       <c r="D19">
-        <v>8.469807983347129</v>
+        <v>6.357399307600092</v>
       </c>
       <c r="E19">
-        <v>16.89013564242583</v>
+        <v>12.83267128999722</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.074669433469599</v>
+        <v>3.64638052805015</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.52255776869928</v>
+        <v>9.974356889579889</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.38781425706834</v>
+        <v>14.59771775325792</v>
       </c>
       <c r="N19">
-        <v>12.07203688724774</v>
+        <v>19.41914989838887</v>
       </c>
       <c r="O19">
-        <v>18.64983620927085</v>
+        <v>24.91944690213655</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.8644139263749</v>
+        <v>11.00909540432849</v>
       </c>
       <c r="C20">
-        <v>8.253692291179462</v>
+        <v>5.318256069413711</v>
       </c>
       <c r="D20">
-        <v>8.640909446022864</v>
+        <v>6.406370999427573</v>
       </c>
       <c r="E20">
-        <v>17.24989243832202</v>
+        <v>12.92676078656067</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.072498624544506</v>
+        <v>3.645644034588157</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.76810193647284</v>
+        <v>10.04441496801871</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.72820990161773</v>
+        <v>14.66928702943311</v>
       </c>
       <c r="N20">
-        <v>11.9883874876768</v>
+        <v>19.39691470713849</v>
       </c>
       <c r="O20">
-        <v>18.77241737975038</v>
+        <v>24.91750281359626</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.85617442515112</v>
+        <v>11.34847327115344</v>
       </c>
       <c r="C21">
-        <v>8.681402821704841</v>
+        <v>5.523842091012483</v>
       </c>
       <c r="D21">
-        <v>9.1973408887104</v>
+        <v>6.570080273562182</v>
       </c>
       <c r="E21">
-        <v>18.42621650863569</v>
+        <v>13.24251908263349</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.065293126880757</v>
+        <v>3.643248101731476</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.56694536878187</v>
+        <v>10.27844424722947</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.8375746152419</v>
+        <v>14.91126086172781</v>
       </c>
       <c r="N21">
-        <v>11.71024406334639</v>
+        <v>19.32430896865447</v>
       </c>
       <c r="O21">
-        <v>19.20277052419253</v>
+        <v>24.91742439530128</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.47911187793969</v>
+        <v>11.56659824085821</v>
       </c>
       <c r="C22">
-        <v>8.951684972689367</v>
+        <v>5.653418156319331</v>
       </c>
       <c r="D22">
-        <v>9.547480473334316</v>
+        <v>6.676254324440306</v>
       </c>
       <c r="E22">
-        <v>19.17154251973565</v>
+        <v>13.44822289352125</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.060643811633376</v>
+        <v>3.641740525713587</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.0697443030942</v>
+        <v>10.43011783086962</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.53754003632039</v>
+        <v>15.07027206542959</v>
       </c>
       <c r="N22">
-        <v>11.53052369756532</v>
+        <v>19.27841796611623</v>
       </c>
       <c r="O22">
-        <v>19.4980674638937</v>
+        <v>24.92218303090479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.14892351319032</v>
+        <v>11.45054156652136</v>
       </c>
       <c r="C23">
-        <v>8.808273379619884</v>
+        <v>5.584704503149453</v>
       </c>
       <c r="D23">
-        <v>9.361826531958481</v>
+        <v>6.619674797174158</v>
       </c>
       <c r="E23">
-        <v>18.77584933396724</v>
+        <v>13.33851980436762</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.063120144671937</v>
+        <v>3.642539829510363</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.80314228836722</v>
+        <v>10.34930045069002</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.16621492355824</v>
+        <v>14.98534193940699</v>
       </c>
       <c r="N23">
-        <v>11.62626175881933</v>
+        <v>19.30276835376407</v>
       </c>
       <c r="O23">
-        <v>19.33916152540021</v>
+        <v>24.91920323880385</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84777285866618</v>
+        <v>11.00349194544353</v>
       </c>
       <c r="C24">
-        <v>8.246544827184014</v>
+        <v>5.314816397344859</v>
       </c>
       <c r="D24">
-        <v>8.631583330849715</v>
+        <v>6.403684298222176</v>
       </c>
       <c r="E24">
-        <v>17.23025990058861</v>
+        <v>12.92159422263973</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.072617489317389</v>
+        <v>3.64568418297441</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.75471666800504</v>
+        <v>10.04057211701333</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.70964734277677</v>
+        <v>14.66535043981612</v>
       </c>
       <c r="N24">
-        <v>11.99296990899833</v>
+        <v>19.39812783846623</v>
       </c>
       <c r="O24">
-        <v>18.76561686193675</v>
+        <v>24.91758529920338</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33361515803167</v>
+        <v>10.50811458066004</v>
       </c>
       <c r="C25">
-        <v>7.60075510555081</v>
+        <v>5.00379509939122</v>
       </c>
       <c r="D25">
-        <v>7.78439790214383</v>
+        <v>6.168518619556606</v>
       </c>
       <c r="E25">
-        <v>15.45803584934342</v>
+        <v>12.47157603811033</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.083155561025494</v>
+        <v>3.64932793434914</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.53978833178537</v>
+        <v>9.703834891320335</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.02767898948749</v>
+        <v>14.32559289121147</v>
       </c>
       <c r="N25">
-        <v>12.39805834902581</v>
+        <v>19.50772481070196</v>
       </c>
       <c r="O25">
-        <v>18.20557486898126</v>
+        <v>24.93648325742182</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.13519245628993</v>
+        <v>13.12099110917428</v>
       </c>
       <c r="C2">
-        <v>4.758500477031853</v>
+        <v>7.091057890247772</v>
       </c>
       <c r="D2">
-        <v>5.995016904908919</v>
+        <v>7.107821119820996</v>
       </c>
       <c r="E2">
-        <v>12.1428478763065</v>
+        <v>14.17630777623409</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.652230012369585</v>
+        <v>2.091205602908708</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.454700929734088</v>
+        <v>11.57183825380004</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.08188274895984</v>
+        <v>14.69058656952121</v>
       </c>
       <c r="N2">
-        <v>19.5942677194054</v>
+        <v>12.70534179921286</v>
       </c>
       <c r="O2">
-        <v>24.96810809532453</v>
+        <v>17.84154454945686</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.879148322919058</v>
+        <v>12.23699065865835</v>
       </c>
       <c r="C3">
-        <v>4.58263332929997</v>
+        <v>6.72459342259851</v>
       </c>
       <c r="D3">
-        <v>5.878042332853814</v>
+        <v>6.61559003186211</v>
       </c>
       <c r="E3">
-        <v>11.92322238730697</v>
+        <v>13.31539503663417</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.654334734380805</v>
+        <v>2.096860099852956</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.286195383706158</v>
+        <v>10.86975223009344</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.9216510842417</v>
+        <v>13.72143705359955</v>
       </c>
       <c r="N3">
-        <v>19.65659305317522</v>
+        <v>12.91962274042156</v>
       </c>
       <c r="O3">
-        <v>25.00055198984928</v>
+        <v>17.62377875841326</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.720958383948156</v>
+        <v>11.66315608656187</v>
       </c>
       <c r="C4">
-        <v>4.470119743864907</v>
+        <v>6.48939712320033</v>
       </c>
       <c r="D4">
-        <v>5.806809299308139</v>
+        <v>6.29648564345476</v>
       </c>
       <c r="E4">
-        <v>11.79045061519949</v>
+        <v>12.77052730053019</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.655695490515261</v>
+        <v>2.100435416910934</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.183274447216803</v>
+        <v>10.41592609825308</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.82599991482625</v>
+        <v>13.09490600974831</v>
       </c>
       <c r="N4">
-        <v>19.69668222208373</v>
+        <v>13.05429844387239</v>
       </c>
       <c r="O4">
-        <v>25.02588845507682</v>
+        <v>17.50388317306136</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.656353297329114</v>
+        <v>11.42145261599173</v>
       </c>
       <c r="C5">
-        <v>4.423168367283535</v>
+        <v>6.391032361845133</v>
       </c>
       <c r="D5">
-        <v>5.777974211134683</v>
+        <v>6.181601406231272</v>
       </c>
       <c r="E5">
-        <v>11.73694725824284</v>
+        <v>12.54458281440223</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.656267277558416</v>
+        <v>2.101919132576568</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.141527830186451</v>
+        <v>10.22528273691064</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.7877525132647</v>
+        <v>12.83162782479095</v>
       </c>
       <c r="N5">
-        <v>19.71347800461593</v>
+        <v>13.10997948857169</v>
       </c>
       <c r="O5">
-        <v>25.03757258777134</v>
+        <v>17.45842306241842</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.645620268173147</v>
+        <v>11.3808416583721</v>
       </c>
       <c r="C6">
-        <v>4.415306823394186</v>
+        <v>6.374548168532071</v>
       </c>
       <c r="D6">
-        <v>5.77319913129264</v>
+        <v>6.1625223164381</v>
       </c>
       <c r="E6">
-        <v>11.72810174648161</v>
+        <v>12.50683532876484</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.656363266945607</v>
+        <v>2.102167138606135</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.134609292334938</v>
+        <v>10.19328259965064</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.78144699016858</v>
+        <v>12.78742858218461</v>
       </c>
       <c r="N6">
-        <v>19.71629469589326</v>
+        <v>13.11927411177826</v>
       </c>
       <c r="O6">
-        <v>25.03959474626331</v>
+        <v>17.45107733842726</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.720087528493391</v>
+        <v>11.65992828645688</v>
       </c>
       <c r="C7">
-        <v>4.469490946064184</v>
+        <v>6.488080683978096</v>
       </c>
       <c r="D7">
-        <v>5.806419578734295</v>
+        <v>6.294691586898589</v>
       </c>
       <c r="E7">
-        <v>11.7897265074149</v>
+        <v>12.76749567156626</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.655703131843975</v>
+        <v>2.100455317581974</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.182710573025144</v>
+        <v>10.41337808969122</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.82548107889402</v>
+        <v>13.09138764219028</v>
       </c>
       <c r="N7">
-        <v>19.69690687537639</v>
+        <v>13.0550461161225</v>
       </c>
       <c r="O7">
-        <v>25.02604053125065</v>
+        <v>17.50325642774562</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.04717267927132</v>
+        <v>12.82260090530745</v>
       </c>
       <c r="C8">
-        <v>4.698823159373088</v>
+        <v>6.966835993377332</v>
       </c>
       <c r="D8">
-        <v>5.954588296736801</v>
+        <v>6.941580468994847</v>
       </c>
       <c r="E8">
-        <v>12.0667372427582</v>
+        <v>13.8829350527126</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.652941547829244</v>
+        <v>2.093134260838995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.396522416906162</v>
+        <v>11.33448314821485</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.02609493841267</v>
+        <v>14.36292317805167</v>
       </c>
       <c r="N8">
-        <v>19.615380222497</v>
+        <v>12.77859240667322</v>
       </c>
       <c r="O8">
-        <v>24.97816930928805</v>
+        <v>17.76354911183486</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.67647706199697</v>
+        <v>14.85867984404079</v>
       </c>
       <c r="C9">
-        <v>5.111155798004337</v>
+        <v>7.823624159093842</v>
       </c>
       <c r="D9">
-        <v>6.247895321285775</v>
+        <v>8.077869649765134</v>
       </c>
       <c r="E9">
-        <v>12.62295678013585</v>
+        <v>16.06945867900986</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.648066641703836</v>
+        <v>2.079563046503826</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.817590355241872</v>
+        <v>12.96038039715629</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.43915999714971</v>
+        <v>16.60937031469145</v>
       </c>
       <c r="N9">
-        <v>19.46990216304938</v>
+        <v>12.26025722020649</v>
       </c>
       <c r="O9">
-        <v>24.9273625578363</v>
+        <v>18.38657221933728</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.12600331166828</v>
+        <v>16.20951811594608</v>
       </c>
       <c r="C10">
-        <v>5.389669776109421</v>
+        <v>8.40214094365434</v>
       </c>
       <c r="D10">
-        <v>6.462549349015497</v>
+        <v>8.834392304517987</v>
       </c>
       <c r="E10">
-        <v>13.03491072452392</v>
+        <v>17.65781134270923</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.64481100634433</v>
+        <v>2.070018489106704</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.12475119710934</v>
+        <v>14.04583155690252</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.75186252390875</v>
+        <v>18.11354543350636</v>
       </c>
       <c r="N10">
-        <v>19.37171733991818</v>
+        <v>11.89272446184063</v>
       </c>
       <c r="O10">
-        <v>24.91639876611451</v>
+        <v>18.91658573674052</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.32668854197044</v>
+        <v>16.7933882570476</v>
       </c>
       <c r="C11">
-        <v>5.510797533448574</v>
+        <v>8.654228023325217</v>
       </c>
       <c r="D11">
-        <v>6.559515806087353</v>
+        <v>9.162077761170593</v>
       </c>
       <c r="E11">
-        <v>13.2220891048106</v>
+        <v>18.35137503585487</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.643399951088615</v>
+        <v>2.065756418423761</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.26334853113489</v>
+        <v>14.51631024381613</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.8955253989997</v>
+        <v>18.76716137476684</v>
       </c>
       <c r="N11">
-        <v>19.32892262710209</v>
+        <v>11.72814501110848</v>
       </c>
       <c r="O11">
-        <v>24.91714911306163</v>
+        <v>19.1740713298253</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.40205811038121</v>
+        <v>17.01015174962036</v>
       </c>
       <c r="C12">
-        <v>5.555846026265828</v>
+        <v>8.748099532206014</v>
       </c>
       <c r="D12">
-        <v>6.596097218077378</v>
+        <v>9.283841765538412</v>
       </c>
       <c r="E12">
-        <v>13.29286148379976</v>
+        <v>18.60997412575972</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.642875622063705</v>
+        <v>2.064152838759554</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.31561693391719</v>
+        <v>14.69115686644635</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.9500801466743</v>
+        <v>19.01036195197312</v>
       </c>
       <c r="N12">
-        <v>19.3129850945335</v>
+        <v>11.66617775786124</v>
       </c>
       <c r="O12">
-        <v>24.91825850367742</v>
+        <v>19.27397974418023</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.38585492478071</v>
+        <v>16.9636595265976</v>
       </c>
       <c r="C13">
-        <v>5.546180769042863</v>
+        <v>8.727953113641405</v>
       </c>
       <c r="D13">
-        <v>6.588225490543917</v>
+        <v>9.257720323156073</v>
       </c>
       <c r="E13">
-        <v>13.27762536681526</v>
+        <v>18.55445759552089</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.642988101456778</v>
+        <v>2.06449775538495</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.30437038906672</v>
+        <v>14.65364722498</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.93832480981983</v>
+        <v>18.9581743969007</v>
       </c>
       <c r="N13">
-        <v>19.31640562857028</v>
+        <v>11.67950802827995</v>
       </c>
       <c r="O13">
-        <v>24.91798287648297</v>
+        <v>19.2523549797647</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.33290220425921</v>
+        <v>16.81130799756858</v>
       </c>
       <c r="C14">
-        <v>5.514520232490677</v>
+        <v>8.661982669061898</v>
       </c>
       <c r="D14">
-        <v>6.562528360474934</v>
+        <v>9.172141665292955</v>
       </c>
       <c r="E14">
-        <v>13.22791418018298</v>
+        <v>18.37273028719221</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.643356613964138</v>
+        <v>2.06562428965669</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.26765329346657</v>
+        <v>14.53076115179209</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.90001087682455</v>
+        <v>18.7872554196031</v>
       </c>
       <c r="N14">
-        <v>19.32760607342653</v>
+        <v>11.72303992038733</v>
       </c>
       <c r="O14">
-        <v>24.91722384504167</v>
+        <v>19.18224239376466</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.30038345455596</v>
+        <v>16.7174258090857</v>
       </c>
       <c r="C15">
-        <v>5.495019939087668</v>
+        <v>8.621367280043987</v>
       </c>
       <c r="D15">
-        <v>6.546769051849777</v>
+        <v>9.11942102656718</v>
       </c>
       <c r="E15">
-        <v>13.1974483727211</v>
+        <v>18.26089520355865</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.643583640191699</v>
+        <v>2.06631564131768</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.2451334419069</v>
+        <v>14.45505958525273</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.87656088944241</v>
+        <v>18.682004386432</v>
       </c>
       <c r="N15">
-        <v>19.33450152744575</v>
+        <v>11.7497501475981</v>
       </c>
       <c r="O15">
-        <v>24.91686638391389</v>
+        <v>19.13961094652031</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.11280463162577</v>
+        <v>16.17075027510359</v>
       </c>
       <c r="C16">
-        <v>5.381640023301248</v>
+        <v>8.385443746651552</v>
       </c>
       <c r="D16">
-        <v>6.4561952148234</v>
+        <v>8.812649744299675</v>
       </c>
       <c r="E16">
-        <v>13.02266713550346</v>
+        <v>17.61191285925703</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.644904625261148</v>
+        <v>2.070298538974339</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.11566620269833</v>
+        <v>14.01461883647243</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.74249792538242</v>
+        <v>18.07022157768874</v>
       </c>
       <c r="N16">
-        <v>19.3745516182113</v>
+        <v>11.90353095307692</v>
       </c>
       <c r="O16">
-        <v>24.91646521460483</v>
+        <v>18.90009224582346</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.9966984796084</v>
+        <v>15.82758502657592</v>
       </c>
       <c r="C17">
-        <v>5.310644129284494</v>
+        <v>8.237875357765718</v>
       </c>
       <c r="D17">
-        <v>6.400427765754794</v>
+        <v>8.620269966410927</v>
       </c>
       <c r="E17">
-        <v>12.91533257054175</v>
+        <v>17.20644762399151</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.645732885683918</v>
+        <v>2.072761598368317</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.03591411853283</v>
+        <v>13.7384794329152</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.66058048536824</v>
+        <v>17.68713076121979</v>
       </c>
       <c r="N17">
-        <v>19.39959929068424</v>
+        <v>11.99852522207418</v>
       </c>
       <c r="O17">
-        <v>24.91768898701025</v>
+        <v>18.75738565307935</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.92956327140164</v>
+        <v>15.62731775872735</v>
       </c>
       <c r="C18">
-        <v>5.269285874031556</v>
+        <v>8.151953976998632</v>
       </c>
       <c r="D18">
-        <v>6.368289980585502</v>
+        <v>8.508066137062228</v>
       </c>
       <c r="E18">
-        <v>12.85358008063536</v>
+        <v>16.97049794725025</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.646215866224357</v>
+        <v>2.074185866457107</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.989939305225629</v>
+        <v>13.57745573540623</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.61359972902387</v>
+        <v>17.46389669832894</v>
       </c>
       <c r="N18">
-        <v>19.41418212757946</v>
+        <v>12.05341057581182</v>
       </c>
       <c r="O18">
-        <v>24.91893296428978</v>
+        <v>18.67684356339188</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.90677412815501</v>
+        <v>15.55901267997218</v>
       </c>
       <c r="C19">
-        <v>5.255193430347829</v>
+        <v>8.12268311980567</v>
       </c>
       <c r="D19">
-        <v>6.357399307600092</v>
+        <v>8.469807983347124</v>
       </c>
       <c r="E19">
-        <v>12.83267128999722</v>
+        <v>16.89013564242584</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.64638052805015</v>
+        <v>2.074669433469463</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.974356889579889</v>
+        <v>13.52255776869928</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.59771775325792</v>
+        <v>17.38781425706834</v>
       </c>
       <c r="N19">
-        <v>19.41914989838887</v>
+        <v>12.07203688724774</v>
       </c>
       <c r="O19">
-        <v>24.91944690213655</v>
+        <v>18.64983620927088</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.00909540432849</v>
+        <v>15.86441392637497</v>
       </c>
       <c r="C20">
-        <v>5.318256069413711</v>
+        <v>8.253692291179462</v>
       </c>
       <c r="D20">
-        <v>6.406370999427573</v>
+        <v>8.640909446022956</v>
       </c>
       <c r="E20">
-        <v>12.92676078656067</v>
+        <v>17.249892438322</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.645644034588157</v>
+        <v>2.072498624544504</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.04441496801871</v>
+        <v>13.76810193647288</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.66928702943311</v>
+        <v>17.72820990161774</v>
       </c>
       <c r="N20">
-        <v>19.39691470713849</v>
+        <v>11.98838748767681</v>
       </c>
       <c r="O20">
-        <v>24.91750281359626</v>
+        <v>18.77241737975039</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.34847327115344</v>
+        <v>16.85617442515108</v>
       </c>
       <c r="C21">
-        <v>5.523842091012483</v>
+        <v>8.681402821704769</v>
       </c>
       <c r="D21">
-        <v>6.570080273562182</v>
+        <v>9.197340888710354</v>
       </c>
       <c r="E21">
-        <v>13.24251908263349</v>
+        <v>18.42621650863567</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.643248101731476</v>
+        <v>2.065293126880758</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.27844424722947</v>
+        <v>14.56694536878184</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.91126086172781</v>
+        <v>18.83757461524186</v>
       </c>
       <c r="N21">
-        <v>19.32430896865447</v>
+        <v>11.71024406334633</v>
       </c>
       <c r="O21">
-        <v>24.91742439530128</v>
+        <v>19.20277052419253</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.56659824085821</v>
+        <v>17.47911187793967</v>
       </c>
       <c r="C22">
-        <v>5.653418156319331</v>
+        <v>8.95168497268938</v>
       </c>
       <c r="D22">
-        <v>6.676254324440306</v>
+        <v>9.54748047333435</v>
       </c>
       <c r="E22">
-        <v>13.44822289352125</v>
+        <v>19.17154251973563</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.641740525713587</v>
+        <v>2.060643811633377</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.43011783086962</v>
+        <v>15.06974430309419</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.07027206542959</v>
+        <v>19.53754003632035</v>
       </c>
       <c r="N22">
-        <v>19.27841796611623</v>
+        <v>11.53052369756532</v>
       </c>
       <c r="O22">
-        <v>24.92218303090479</v>
+        <v>19.49806746389373</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.45054156652136</v>
+        <v>17.14892351319033</v>
       </c>
       <c r="C23">
-        <v>5.584704503149453</v>
+        <v>8.808273379619857</v>
       </c>
       <c r="D23">
-        <v>6.619674797174158</v>
+        <v>9.361826531958481</v>
       </c>
       <c r="E23">
-        <v>13.33851980436762</v>
+        <v>18.77584933396724</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.642539829510363</v>
+        <v>2.063120144671939</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.34930045069002</v>
+        <v>14.80314228836721</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.98534193940699</v>
+        <v>19.16621492355824</v>
       </c>
       <c r="N23">
-        <v>19.30276835376407</v>
+        <v>11.62626175881937</v>
       </c>
       <c r="O23">
-        <v>24.91920323880385</v>
+        <v>19.33916152540024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.00349194544353</v>
+        <v>15.84777285866621</v>
       </c>
       <c r="C24">
-        <v>5.314816397344859</v>
+        <v>8.246544827184017</v>
       </c>
       <c r="D24">
-        <v>6.403684298222176</v>
+        <v>8.631583330849777</v>
       </c>
       <c r="E24">
-        <v>12.92159422263973</v>
+        <v>17.23025990058866</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.64568418297441</v>
+        <v>2.072617489317254</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.04057211701333</v>
+        <v>13.75471666800507</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.66535043981612</v>
+        <v>17.70964734277681</v>
       </c>
       <c r="N24">
-        <v>19.39812783846623</v>
+        <v>11.99296990899827</v>
       </c>
       <c r="O24">
-        <v>24.91758529920338</v>
+        <v>18.76561686193667</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.50811458066004</v>
+        <v>14.33361515803165</v>
       </c>
       <c r="C25">
-        <v>5.00379509939122</v>
+        <v>7.600755105551094</v>
       </c>
       <c r="D25">
-        <v>6.168518619556606</v>
+        <v>7.78439790214376</v>
       </c>
       <c r="E25">
-        <v>12.47157603811033</v>
+        <v>15.45803584934339</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.64932793434914</v>
+        <v>2.083155561025758</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.703834891320335</v>
+        <v>12.53978833178542</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.32559289121147</v>
+        <v>16.02767898948749</v>
       </c>
       <c r="N25">
-        <v>19.50772481070196</v>
+        <v>12.39805834902581</v>
       </c>
       <c r="O25">
-        <v>24.93648325742182</v>
+        <v>18.20557486898124</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.12099110917428</v>
+        <v>20.1563289466933</v>
       </c>
       <c r="C2">
-        <v>7.091057890247772</v>
+        <v>15.68736270874511</v>
       </c>
       <c r="D2">
-        <v>7.107821119820996</v>
+        <v>12.84378124095254</v>
       </c>
       <c r="E2">
-        <v>14.17630777623409</v>
+        <v>14.51426899323788</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.091205602908708</v>
+        <v>26.63690139841304</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.898638456345419</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.972341119313383</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.478239575288667</v>
       </c>
       <c r="K2">
-        <v>11.57183825380004</v>
+        <v>13.12577737366231</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.895566884983842</v>
       </c>
       <c r="M2">
-        <v>14.69058656952121</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.70534179921286</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.84154454945686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.19974496484009</v>
+      </c>
+      <c r="Q2">
+        <v>16.16198855159251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.23699065865835</v>
+        <v>18.82567588637392</v>
       </c>
       <c r="C3">
-        <v>6.72459342259851</v>
+        <v>14.69907304240505</v>
       </c>
       <c r="D3">
-        <v>6.61559003186211</v>
+        <v>12.28607692913402</v>
       </c>
       <c r="E3">
-        <v>13.31539503663417</v>
+        <v>13.86812796995665</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.096860099852956</v>
+        <v>25.67012236759631</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.655830989469642</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.824635868531255</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.396913362487737</v>
       </c>
       <c r="K3">
-        <v>10.86975223009344</v>
+        <v>13.17753541604269</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.692355689307952</v>
       </c>
       <c r="M3">
-        <v>13.72143705359955</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.91962274042156</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.62377875841326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.2394134262344</v>
+      </c>
+      <c r="Q3">
+        <v>15.84908295574484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.66315608656187</v>
+        <v>17.95612454418928</v>
       </c>
       <c r="C4">
-        <v>6.48939712320033</v>
+        <v>14.06091459984694</v>
       </c>
       <c r="D4">
-        <v>6.29648564345476</v>
+        <v>11.93276315067482</v>
       </c>
       <c r="E4">
-        <v>12.77052730053019</v>
+        <v>13.45608358776698</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.100435416910934</v>
+        <v>25.0691319187632</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.621410592124615</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.731396474190083</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.349690035450195</v>
       </c>
       <c r="K4">
-        <v>10.41592609825308</v>
+        <v>13.21405294305654</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.56355411582181</v>
       </c>
       <c r="M4">
-        <v>13.09490600974831</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.05429844387239</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>17.50388317306136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.26658259467329</v>
+      </c>
+      <c r="Q4">
+        <v>15.65994871337378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.42145261599173</v>
+        <v>17.58336404064667</v>
       </c>
       <c r="C5">
-        <v>6.391032361845133</v>
+        <v>13.80284108807962</v>
       </c>
       <c r="D5">
-        <v>6.181601406231272</v>
+        <v>11.7861205814341</v>
       </c>
       <c r="E5">
-        <v>12.54458281440223</v>
+        <v>13.28428328707167</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.101919132576568</v>
+        <v>24.81053394833393</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.687661008148591</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.693308760140508</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.329049016380489</v>
       </c>
       <c r="K5">
-        <v>10.22528273691064</v>
+        <v>13.22538430722496</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.509967980184131</v>
       </c>
       <c r="M5">
-        <v>12.83162782479095</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.10997948857169</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>17.45842306241842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.2794093875793</v>
+      </c>
+      <c r="Q5">
+        <v>15.57851678813469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.3808416583721</v>
+        <v>17.51436885318799</v>
       </c>
       <c r="C6">
-        <v>6.374548168532071</v>
+        <v>13.7715509831139</v>
       </c>
       <c r="D6">
-        <v>6.1625223164381</v>
+        <v>11.76151106771135</v>
       </c>
       <c r="E6">
-        <v>12.50683532876484</v>
+        <v>13.25531781588533</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.102167138606135</v>
+        <v>24.7526318276553</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.699017346316508</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.687832021616447</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.323125999765661</v>
       </c>
       <c r="K6">
-        <v>10.19328259965064</v>
+        <v>13.22159891904807</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.50087099219062</v>
       </c>
       <c r="M6">
-        <v>12.78742858218461</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.11927411177826</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>17.45107733842726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.2828889555396</v>
+      </c>
+      <c r="Q6">
+        <v>15.55872459951672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65992828645688</v>
+        <v>17.93437206882084</v>
       </c>
       <c r="C7">
-        <v>6.488080683978096</v>
+        <v>14.08957826945142</v>
       </c>
       <c r="D7">
-        <v>6.294691586898589</v>
+        <v>11.93050522346253</v>
       </c>
       <c r="E7">
-        <v>12.76749567156626</v>
+        <v>13.45320071565375</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.100455317581974</v>
+        <v>25.02550941140569</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.623015375311698</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.732944472058697</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.342506771539483</v>
       </c>
       <c r="K7">
-        <v>10.41337808969122</v>
+        <v>13.1985342174935</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.562459953318878</v>
       </c>
       <c r="M7">
-        <v>13.09138764219028</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.0550461161225</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17.50325642774562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.27039543129385</v>
+      </c>
+      <c r="Q7">
+        <v>15.64169672700842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.82260090530745</v>
+        <v>19.68791349823552</v>
       </c>
       <c r="C8">
-        <v>6.966835993377332</v>
+        <v>15.39241970673567</v>
       </c>
       <c r="D8">
-        <v>6.941580468994847</v>
+        <v>12.65348212940363</v>
       </c>
       <c r="E8">
-        <v>13.8829350527126</v>
+        <v>14.29403540447624</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.093134260838995</v>
+        <v>26.25449284540878</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.815185782389949</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.924119016355204</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.44062193984311</v>
       </c>
       <c r="K8">
-        <v>11.33448314821485</v>
+        <v>13.12188387080076</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.825892970773887</v>
       </c>
       <c r="M8">
-        <v>14.36292317805167</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.77859240667322</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.76354911183486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.21795047057742</v>
+      </c>
+      <c r="Q8">
+        <v>16.0313738343369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.85867984404079</v>
+        <v>22.73899016637663</v>
       </c>
       <c r="C9">
-        <v>7.823624159093842</v>
+        <v>17.64698317351586</v>
       </c>
       <c r="D9">
-        <v>8.077869649765134</v>
+        <v>13.97939163756231</v>
       </c>
       <c r="E9">
-        <v>16.06945867900986</v>
+        <v>15.8172617200628</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.079563046503826</v>
+        <v>28.66051892265819</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.391997340793521</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.276913983917499</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.666900423781842</v>
       </c>
       <c r="K9">
-        <v>12.96038039715629</v>
+        <v>13.03953168783396</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.30997232084116</v>
       </c>
       <c r="M9">
-        <v>16.60937031469145</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.26025722020649</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.38657221933728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.13115865939229</v>
+      </c>
+      <c r="Q9">
+        <v>16.84647716540822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20951811594608</v>
+        <v>24.68151507549908</v>
       </c>
       <c r="C10">
-        <v>8.40214094365434</v>
+        <v>19.10236705384841</v>
       </c>
       <c r="D10">
-        <v>8.834392304517987</v>
+        <v>14.75364866592608</v>
       </c>
       <c r="E10">
-        <v>17.65781134270923</v>
+        <v>16.60479800871109</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.070018489106704</v>
+        <v>30.15489867706867</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.774001277776982</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.52034094467014</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.807016370848341</v>
       </c>
       <c r="K10">
-        <v>14.04583155690252</v>
+        <v>12.95167894373489</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.542583229615548</v>
       </c>
       <c r="M10">
-        <v>18.11354543350636</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.89272446184063</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.91658573674052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.10130111422029</v>
+      </c>
+      <c r="Q10">
+        <v>17.3586464327941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.7933882570476</v>
+        <v>25.12216961978824</v>
       </c>
       <c r="C11">
-        <v>8.654228023325217</v>
+        <v>19.23934968739783</v>
       </c>
       <c r="D11">
-        <v>9.162077761170593</v>
+        <v>13.91589232075552</v>
       </c>
       <c r="E11">
-        <v>18.35137503585487</v>
+        <v>14.83776303123754</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.065756418423761</v>
+        <v>29.06404861275063</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.455700716588415</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.585748242552419</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.546730996467804</v>
       </c>
       <c r="K11">
-        <v>14.51631024381613</v>
+        <v>12.48496372272227</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.82816612205608</v>
       </c>
       <c r="M11">
-        <v>18.76716137476684</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.72814501110848</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>19.1740713298253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.25105913483917</v>
+      </c>
+      <c r="Q11">
+        <v>16.80073415711157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.01015174962036</v>
+        <v>25.11770924029339</v>
       </c>
       <c r="C12">
-        <v>8.748099532206014</v>
+        <v>19.01760998553194</v>
       </c>
       <c r="D12">
-        <v>9.283841765538412</v>
+        <v>13.03892107542671</v>
       </c>
       <c r="E12">
-        <v>18.60997412575972</v>
+        <v>13.21692267783764</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.064152838759554</v>
+        <v>27.85847986006606</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.548924811166468</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.589778727698134</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.302053960569369</v>
       </c>
       <c r="K12">
-        <v>14.69115686644635</v>
+        <v>12.13215761265863</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.26946389732491</v>
       </c>
       <c r="M12">
-        <v>19.01036195197312</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.66617775786124</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>19.27397974418023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.38516476116356</v>
+      </c>
+      <c r="Q12">
+        <v>16.23349129403485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.9636595265976</v>
+        <v>24.75203465504826</v>
       </c>
       <c r="C13">
-        <v>8.727953113641405</v>
+        <v>18.53785753672153</v>
       </c>
       <c r="D13">
-        <v>9.257720323156073</v>
+        <v>12.05895362563616</v>
       </c>
       <c r="E13">
-        <v>18.55445759552089</v>
+        <v>11.59827559669527</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.06449775538495</v>
+        <v>26.40857834339497</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.765929385252918</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.549988284532664</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.042871538833232</v>
       </c>
       <c r="K13">
-        <v>14.65364722498</v>
+        <v>11.82277767262447</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.815709738165175</v>
       </c>
       <c r="M13">
-        <v>18.9581743969007</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.67950802827995</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>19.2523549797647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.51747702363393</v>
+      </c>
+      <c r="Q13">
+        <v>15.59252174601993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.81130799756858</v>
+        <v>24.32365973720355</v>
       </c>
       <c r="C14">
-        <v>8.661982669061898</v>
+        <v>18.08619445233301</v>
       </c>
       <c r="D14">
-        <v>9.172141665292955</v>
+        <v>11.31860997536818</v>
       </c>
       <c r="E14">
-        <v>18.37273028719221</v>
+        <v>10.48515723796312</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.06562428965669</v>
+        <v>25.25949833079014</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.661930577511169</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.503367728415297</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.853392923317845</v>
       </c>
       <c r="K14">
-        <v>14.53076115179209</v>
+        <v>11.62513383546249</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.576911296701203</v>
       </c>
       <c r="M14">
-        <v>18.7872554196031</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.72303992038733</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>19.18224239376466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.61030028858756</v>
+      </c>
+      <c r="Q14">
+        <v>15.10408812935596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.7174258090857</v>
+        <v>24.13517782556632</v>
       </c>
       <c r="C15">
-        <v>8.621367280043987</v>
+        <v>17.92888936328622</v>
       </c>
       <c r="D15">
-        <v>9.11942102656718</v>
+        <v>11.1157338303679</v>
       </c>
       <c r="E15">
-        <v>18.26089520355865</v>
+        <v>10.2104933495431</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.06631564131768</v>
+        <v>24.9147823302345</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.8657740919947</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.483403592924091</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.802748870293509</v>
       </c>
       <c r="K15">
-        <v>14.45505958525273</v>
+        <v>11.58207642121743</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.528336274749726</v>
       </c>
       <c r="M15">
-        <v>18.682004386432</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.7497501475981</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>19.13961094652031</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.63312664584719</v>
+      </c>
+      <c r="Q15">
+        <v>14.96516921067457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.17075027510359</v>
+        <v>23.38102605245446</v>
       </c>
       <c r="C16">
-        <v>8.385443746651552</v>
+        <v>17.40944217069963</v>
       </c>
       <c r="D16">
-        <v>8.812649744299675</v>
+        <v>10.93724940440631</v>
       </c>
       <c r="E16">
-        <v>17.61191285925703</v>
+        <v>10.12918259288874</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.070298538974339</v>
+        <v>24.47538661558166</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.587233773444859</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.389790890539054</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.788283539035382</v>
       </c>
       <c r="K16">
-        <v>14.01461883647243</v>
+        <v>11.67653294862694</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.505640247951438</v>
       </c>
       <c r="M16">
-        <v>18.07022157768874</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.90353095307692</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>18.90009224582346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.61005311208326</v>
+      </c>
+      <c r="Q16">
+        <v>14.84866906481748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.82758502657592</v>
+        <v>23.02838340151857</v>
       </c>
       <c r="C17">
-        <v>8.237875357765718</v>
+        <v>17.25642655072928</v>
       </c>
       <c r="D17">
-        <v>8.620269966410927</v>
+        <v>11.20589006114276</v>
       </c>
       <c r="E17">
-        <v>17.20644762399151</v>
+        <v>10.6576535216909</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.072761598368317</v>
+        <v>24.76973243738007</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.846390293572066</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.342625742282792</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.878703476900901</v>
       </c>
       <c r="K17">
-        <v>13.7384794329152</v>
+        <v>11.85189874129144</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.600480431581809</v>
       </c>
       <c r="M17">
-        <v>17.68713076121979</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.99852522207418</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>18.75738565307935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.54478595930976</v>
+      </c>
+      <c r="Q17">
+        <v>15.02373265684574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.62731775872735</v>
+        <v>23.00522950537718</v>
       </c>
       <c r="C18">
-        <v>8.151953976998632</v>
+        <v>17.38838875533695</v>
       </c>
       <c r="D18">
-        <v>8.508066137062228</v>
+        <v>11.89385580351619</v>
       </c>
       <c r="E18">
-        <v>16.97049794725025</v>
+        <v>11.8401633950039</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.074185866457107</v>
+        <v>25.75201519791865</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.671544316359606</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.328847343917674</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.073060428670605</v>
       </c>
       <c r="K18">
-        <v>13.57745573540623</v>
+        <v>12.12942300230506</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.889734147535256</v>
       </c>
       <c r="M18">
-        <v>17.46389669832894</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.05341057581182</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>18.67684356339188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.43417515835655</v>
+      </c>
+      <c r="Q18">
+        <v>15.47839120724853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.55901267997218</v>
+        <v>23.2248490742844</v>
       </c>
       <c r="C19">
-        <v>8.12268311980567</v>
+        <v>17.78655920139629</v>
       </c>
       <c r="D19">
-        <v>8.469807983347124</v>
+        <v>12.86398228651332</v>
       </c>
       <c r="E19">
-        <v>16.89013564242584</v>
+        <v>13.52118776839063</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.074669433469463</v>
+        <v>27.13387111615359</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.414394898510392</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.351760631102003</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.324590746496403</v>
       </c>
       <c r="K19">
-        <v>13.52255776869928</v>
+        <v>12.44882843793862</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.413793959477985</v>
       </c>
       <c r="M19">
-        <v>17.38781425706834</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.07203688724774</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18.64983620927088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.30881469231746</v>
+      </c>
+      <c r="Q19">
+        <v>16.09225256527654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.86441392637497</v>
+        <v>24.14540013042767</v>
       </c>
       <c r="C20">
-        <v>8.253692291179462</v>
+        <v>18.80463037253174</v>
       </c>
       <c r="D20">
-        <v>8.640909446022956</v>
+        <v>14.54705933992044</v>
       </c>
       <c r="E20">
-        <v>17.249892438322</v>
+        <v>16.3894659225149</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.072498624544504</v>
+        <v>29.65103802470964</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.671546777757412</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.464214707457974</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.747354671982809</v>
       </c>
       <c r="K20">
-        <v>13.76810193647288</v>
+        <v>12.92228651923658</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.477040179099788</v>
       </c>
       <c r="M20">
-        <v>17.72820990161774</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.98838748767681</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>18.77241737975039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.12229794748538</v>
+      </c>
+      <c r="Q20">
+        <v>17.17106693395158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.85617442515108</v>
+        <v>25.63687684253152</v>
       </c>
       <c r="C21">
-        <v>8.681402821704769</v>
+        <v>19.94968565773661</v>
       </c>
       <c r="D21">
-        <v>9.197340888710354</v>
+        <v>15.3331966078831</v>
       </c>
       <c r="E21">
-        <v>18.42621650863567</v>
+        <v>17.35422607079087</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.065293126880758</v>
+        <v>31.11016837922297</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.984512989438165</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.654827083613984</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.920251035598806</v>
       </c>
       <c r="K21">
-        <v>14.56694536878184</v>
+        <v>12.94825408712602</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.806327010617007</v>
       </c>
       <c r="M21">
-        <v>18.83757461524186</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.71024406334633</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>19.20277052419253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.07662791089493</v>
+      </c>
+      <c r="Q21">
+        <v>17.71540585739943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.47911187793967</v>
+        <v>26.55997861892941</v>
       </c>
       <c r="C22">
-        <v>8.95168497268938</v>
+        <v>20.60950068442108</v>
       </c>
       <c r="D22">
-        <v>9.54748047333435</v>
+        <v>15.76390622473468</v>
       </c>
       <c r="E22">
-        <v>19.17154251973563</v>
+        <v>17.84087215435914</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.060643811633377</v>
+        <v>31.98897111278563</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.176408412579818</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.771914154037389</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.02538943818718</v>
       </c>
       <c r="K22">
-        <v>15.06974430309419</v>
+        <v>12.96741624275461</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.965526875131018</v>
       </c>
       <c r="M22">
-        <v>19.53754003632035</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.53052369756532</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>19.49806746389373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.05239741666706</v>
+      </c>
+      <c r="Q22">
+        <v>18.04578956013038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.14892351319033</v>
+        <v>26.08564007403911</v>
       </c>
       <c r="C23">
-        <v>8.808273379619857</v>
+        <v>20.23227556303936</v>
       </c>
       <c r="D23">
-        <v>9.361826531958481</v>
+        <v>15.53544832214229</v>
       </c>
       <c r="E23">
-        <v>18.77584933396724</v>
+        <v>17.58308861623147</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.063120144671939</v>
+        <v>31.55942109021648</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.075014138717058</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.706786170859711</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.976601664557931</v>
       </c>
       <c r="K23">
-        <v>14.80314228836721</v>
+        <v>12.97493973763453</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.881268380343726</v>
       </c>
       <c r="M23">
-        <v>19.16621492355824</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.62626175881937</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>19.33916152540024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.05972045561167</v>
+      </c>
+      <c r="Q23">
+        <v>17.88713860865522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84777285866621</v>
+        <v>24.17863853801979</v>
       </c>
       <c r="C24">
-        <v>8.246544827184017</v>
+        <v>18.79048112597982</v>
       </c>
       <c r="D24">
-        <v>8.631583330849777</v>
+        <v>14.64427803060129</v>
       </c>
       <c r="E24">
-        <v>17.23025990058866</v>
+        <v>16.57388744987272</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.072617489317254</v>
+        <v>29.84682274952897</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.681801450992695</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.460596464708326</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.785299181638003</v>
       </c>
       <c r="K24">
-        <v>13.75471666800507</v>
+        <v>12.98748963406491</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.553269897659273</v>
       </c>
       <c r="M24">
-        <v>17.70964734277681</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.99296990899827</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>18.76561686193667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.10215128900838</v>
+      </c>
+      <c r="Q24">
+        <v>17.26097107641023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33361515803165</v>
+        <v>21.93236148297564</v>
       </c>
       <c r="C25">
-        <v>7.600755105551094</v>
+        <v>17.11227342336036</v>
       </c>
       <c r="D25">
-        <v>7.78439790214376</v>
+        <v>13.63090032777319</v>
       </c>
       <c r="E25">
-        <v>15.45803584934339</v>
+        <v>15.41851559996743</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.083155561025758</v>
+        <v>27.95396253277928</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.239327154559139</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.187184924296957</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.591276216438908</v>
       </c>
       <c r="K25">
-        <v>12.53978833178542</v>
+        <v>13.02894350906536</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.182138483165619</v>
       </c>
       <c r="M25">
-        <v>16.02767898948749</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.39805834902581</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>18.20557486898124</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.15955490421037</v>
+      </c>
+      <c r="Q25">
+        <v>16.59492662326286</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.1563289466933</v>
+        <v>19.90781944341605</v>
       </c>
       <c r="C2">
-        <v>15.68736270874511</v>
+        <v>16.11075033166163</v>
       </c>
       <c r="D2">
-        <v>12.84378124095254</v>
+        <v>12.83878821734889</v>
       </c>
       <c r="E2">
-        <v>14.51426899323788</v>
+        <v>14.5043279992252</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.63690139841304</v>
+        <v>25.40358676950363</v>
       </c>
       <c r="H2">
-        <v>1.898638456345419</v>
+        <v>1.886088849639629</v>
       </c>
       <c r="I2">
-        <v>2.972341119313383</v>
+        <v>2.98978828570143</v>
       </c>
       <c r="J2">
-        <v>9.478239575288667</v>
+        <v>9.865142132569321</v>
       </c>
       <c r="K2">
-        <v>13.12577737366231</v>
+        <v>12.78321256670847</v>
       </c>
       <c r="L2">
-        <v>6.895566884983842</v>
+        <v>11.48761218317684</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.4698912007051</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.889001264199121</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.19974496484009</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.16198855159251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.24591760282079</v>
+      </c>
+      <c r="S2">
+        <v>15.87652922601577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.82567588637392</v>
+        <v>18.62623499959183</v>
       </c>
       <c r="C3">
-        <v>14.69907304240505</v>
+        <v>15.03122082779915</v>
       </c>
       <c r="D3">
-        <v>12.28607692913402</v>
+        <v>12.28516425089422</v>
       </c>
       <c r="E3">
-        <v>13.86812796995665</v>
+        <v>13.86630581145744</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.67012236759631</v>
+        <v>24.5261381645906</v>
       </c>
       <c r="H3">
-        <v>1.655830989469642</v>
+        <v>1.653593194576256</v>
       </c>
       <c r="I3">
-        <v>2.824635868531255</v>
+        <v>2.858186659872703</v>
       </c>
       <c r="J3">
-        <v>9.396913362487737</v>
+        <v>9.77115496765291</v>
       </c>
       <c r="K3">
-        <v>13.17753541604269</v>
+        <v>12.86207975190853</v>
       </c>
       <c r="L3">
-        <v>6.692355689307952</v>
+        <v>11.63899839036583</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.436860200888243</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.691167182155317</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.2394134262344</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.84908295574484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.25851074782652</v>
+      </c>
+      <c r="S3">
+        <v>15.60182839415963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.95612454418928</v>
+        <v>17.78853577081975</v>
       </c>
       <c r="C4">
-        <v>14.06091459984694</v>
+        <v>14.33327656438586</v>
       </c>
       <c r="D4">
-        <v>11.93276315067482</v>
+        <v>11.9345274802033</v>
       </c>
       <c r="E4">
-        <v>13.45608358776698</v>
+        <v>13.45961145707339</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.0691319187632</v>
+        <v>23.9824610496795</v>
       </c>
       <c r="H4">
-        <v>1.621410592124615</v>
+        <v>1.617053934142376</v>
       </c>
       <c r="I4">
-        <v>2.731396474190083</v>
+        <v>2.775230697437723</v>
       </c>
       <c r="J4">
-        <v>9.349690035450195</v>
+        <v>9.713842275381349</v>
       </c>
       <c r="K4">
-        <v>13.21405294305654</v>
+        <v>12.913770201426</v>
       </c>
       <c r="L4">
-        <v>6.56355411582181</v>
+        <v>11.73390204763425</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.439358904124874</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.565834618953859</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.26658259467329</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.65994871337378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.26941945995962</v>
+      </c>
+      <c r="S4">
+        <v>15.43523714753885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.58336404064667</v>
+        <v>17.42920958166053</v>
       </c>
       <c r="C5">
-        <v>13.80284108807962</v>
+        <v>14.05003477018114</v>
       </c>
       <c r="D5">
-        <v>11.7861205814341</v>
+        <v>11.78902508419555</v>
       </c>
       <c r="E5">
-        <v>13.28428328707167</v>
+        <v>13.29009436130438</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.81053394833393</v>
+        <v>23.74764108261301</v>
       </c>
       <c r="H5">
-        <v>1.687661008148591</v>
+        <v>1.680543186146963</v>
       </c>
       <c r="I5">
-        <v>2.693308760140508</v>
+        <v>2.741695702864638</v>
       </c>
       <c r="J5">
-        <v>9.329049016380489</v>
+        <v>9.688542809784167</v>
       </c>
       <c r="K5">
-        <v>13.22538430722496</v>
+        <v>12.93106986033038</v>
       </c>
       <c r="L5">
-        <v>6.509967980184131</v>
+        <v>11.76892651921885</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.443410166278623</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.51370949677153</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.2794093875793</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.57851678813469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.2757856539988</v>
+      </c>
+      <c r="S5">
+        <v>15.36277204023914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.51436885318799</v>
+        <v>17.36248582985455</v>
       </c>
       <c r="C6">
-        <v>13.7715509831139</v>
+        <v>14.01468902824264</v>
       </c>
       <c r="D6">
-        <v>11.76151106771135</v>
+        <v>11.76461210630089</v>
       </c>
       <c r="E6">
-        <v>13.25531781588533</v>
+        <v>13.26152264211422</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.7526318276553</v>
+        <v>23.69355793396669</v>
       </c>
       <c r="H6">
-        <v>1.699017346316508</v>
+        <v>1.691427642997057</v>
       </c>
       <c r="I6">
-        <v>2.687832021616447</v>
+        <v>2.737338606959668</v>
       </c>
       <c r="J6">
-        <v>9.323125999765661</v>
+        <v>9.681840120169188</v>
       </c>
       <c r="K6">
-        <v>13.22159891904807</v>
+        <v>12.92843149509423</v>
       </c>
       <c r="L6">
-        <v>6.50087099219062</v>
+        <v>11.7697136280986</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.441167033354551</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.504863350664508</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.2828889555396</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.55872459951672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.27828870093573</v>
+      </c>
+      <c r="S6">
+        <v>15.34449098113295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.93437206882084</v>
+        <v>17.76079501025029</v>
       </c>
       <c r="C7">
-        <v>14.08957826945142</v>
+        <v>14.3511816441683</v>
       </c>
       <c r="D7">
-        <v>11.93050522346253</v>
+        <v>11.93204678306064</v>
       </c>
       <c r="E7">
-        <v>13.45320071565375</v>
+        <v>13.45628308385731</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.02550941140569</v>
+        <v>24.03303123879953</v>
       </c>
       <c r="H7">
-        <v>1.623015375311698</v>
+        <v>1.619209059301653</v>
       </c>
       <c r="I7">
-        <v>2.732944472058697</v>
+        <v>2.777233516509209</v>
       </c>
       <c r="J7">
-        <v>9.342506771539483</v>
+        <v>9.661907976116964</v>
       </c>
       <c r="K7">
-        <v>13.1985342174935</v>
+        <v>12.89350764616372</v>
       </c>
       <c r="L7">
-        <v>6.562459953318878</v>
+        <v>11.71608256182272</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.426764911942878</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.564452439977815</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.27039543129385</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.64169672700842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.27491126404869</v>
+      </c>
+      <c r="S7">
+        <v>15.40566555689043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.68791349823552</v>
+        <v>19.4370133413369</v>
       </c>
       <c r="C8">
-        <v>15.39241970673567</v>
+        <v>15.75222764995604</v>
       </c>
       <c r="D8">
-        <v>12.65348212940363</v>
+        <v>12.64913184404557</v>
       </c>
       <c r="E8">
-        <v>14.29403540447624</v>
+        <v>14.28536593551062</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.25449284540878</v>
+        <v>25.35192094273798</v>
       </c>
       <c r="H8">
-        <v>1.815185782389949</v>
+        <v>1.804339132714452</v>
       </c>
       <c r="I8">
-        <v>2.924119016355204</v>
+        <v>2.946544365177509</v>
       </c>
       <c r="J8">
-        <v>9.44062193984311</v>
+        <v>9.677958818816574</v>
       </c>
       <c r="K8">
-        <v>13.12188387080076</v>
+        <v>12.77221239788985</v>
       </c>
       <c r="L8">
-        <v>6.825892970773887</v>
+        <v>11.5085780791554</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.426755731872106</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.820189874636727</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.21795047057742</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.0313738343369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.26043359342934</v>
+      </c>
+      <c r="S8">
+        <v>15.72193133925465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.73899016637663</v>
+        <v>22.37241619375071</v>
       </c>
       <c r="C9">
-        <v>17.64698317351586</v>
+        <v>18.2091193584621</v>
       </c>
       <c r="D9">
-        <v>13.97939163756231</v>
+        <v>13.96561002844343</v>
       </c>
       <c r="E9">
-        <v>15.8172617200628</v>
+        <v>15.79001563227201</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.66051892265819</v>
+        <v>27.60576592145536</v>
       </c>
       <c r="H9">
-        <v>2.391997340793521</v>
+        <v>2.355886194675452</v>
       </c>
       <c r="I9">
-        <v>3.276913983917499</v>
+        <v>3.259971761727956</v>
       </c>
       <c r="J9">
-        <v>9.666900423781842</v>
+        <v>9.885935701458084</v>
       </c>
       <c r="K9">
-        <v>13.03953168783396</v>
+        <v>12.60822458875363</v>
       </c>
       <c r="L9">
-        <v>7.30997232084116</v>
+        <v>11.15571270231489</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.639259972775138</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.291611566827042</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.13115865939229</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.84647716540822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.24492189746288</v>
+      </c>
+      <c r="S9">
+        <v>16.42903483477706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.68151507549908</v>
+        <v>24.2142781475663</v>
       </c>
       <c r="C10">
-        <v>19.10236705384841</v>
+        <v>19.73979973576317</v>
       </c>
       <c r="D10">
-        <v>14.75364866592608</v>
+        <v>14.73268788864218</v>
       </c>
       <c r="E10">
-        <v>16.60479800871109</v>
+        <v>16.56341690026911</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30.15489867706867</v>
+        <v>29.47629165162791</v>
       </c>
       <c r="H10">
-        <v>2.774001277776982</v>
+        <v>2.717831006775418</v>
       </c>
       <c r="I10">
-        <v>3.52034094467014</v>
+        <v>3.474948132026416</v>
       </c>
       <c r="J10">
-        <v>9.807016370848341</v>
+        <v>9.763219994836742</v>
       </c>
       <c r="K10">
-        <v>12.95167894373489</v>
+        <v>12.42946487611476</v>
       </c>
       <c r="L10">
-        <v>7.542583229615548</v>
+        <v>10.85336519262524</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.830307601818889</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.514311495020297</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.10130111422029</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.3586464327941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.27957316890383</v>
+      </c>
+      <c r="S10">
+        <v>16.80402450352458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.12216961978824</v>
+        <v>24.59954496098869</v>
       </c>
       <c r="C11">
-        <v>19.23934968739783</v>
+        <v>19.76158522355908</v>
       </c>
       <c r="D11">
-        <v>13.91589232075552</v>
+        <v>13.89159921697772</v>
       </c>
       <c r="E11">
-        <v>14.83776303123754</v>
+        <v>14.78725949867251</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.06404861275063</v>
+        <v>29.42656750916655</v>
       </c>
       <c r="H11">
-        <v>3.455700716588415</v>
+        <v>3.403679441284862</v>
       </c>
       <c r="I11">
-        <v>3.585748242552419</v>
+        <v>3.530979641611789</v>
       </c>
       <c r="J11">
-        <v>9.546730996467804</v>
+        <v>9.043964690219756</v>
       </c>
       <c r="K11">
-        <v>12.48496372272227</v>
+        <v>11.93767749545919</v>
       </c>
       <c r="L11">
-        <v>6.82816612205608</v>
+        <v>10.45466465115465</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.546133661275402</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.793078484806175</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.25105913483917</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.80073415711157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.47595175316586</v>
+      </c>
+      <c r="S11">
+        <v>16.13175834470473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.11770924029339</v>
+        <v>24.58561303770544</v>
       </c>
       <c r="C12">
-        <v>19.01760998553194</v>
+        <v>19.45571347851917</v>
       </c>
       <c r="D12">
-        <v>13.03892107542671</v>
+        <v>13.01376470955895</v>
       </c>
       <c r="E12">
-        <v>13.21692267783764</v>
+        <v>13.16179321424197</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.85847986006606</v>
+        <v>28.73843538641539</v>
       </c>
       <c r="H12">
-        <v>4.548924811166468</v>
+        <v>4.509011184951607</v>
       </c>
       <c r="I12">
-        <v>3.589778727698134</v>
+        <v>3.532575714687084</v>
       </c>
       <c r="J12">
-        <v>9.302053960569369</v>
+        <v>8.63813293479301</v>
       </c>
       <c r="K12">
-        <v>12.13215761265863</v>
+        <v>11.60492550304842</v>
       </c>
       <c r="L12">
-        <v>6.26946389732491</v>
+        <v>10.22043145330059</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.291661961600609</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.231222109266322</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.38516476116356</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.23349129403485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.62813613672311</v>
+      </c>
+      <c r="S12">
+        <v>15.53672868326259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.75203465504826</v>
+        <v>24.25691887484872</v>
       </c>
       <c r="C13">
-        <v>18.53785753672153</v>
+        <v>18.92893446057055</v>
       </c>
       <c r="D13">
-        <v>12.05895362563616</v>
+        <v>12.03500724884401</v>
       </c>
       <c r="E13">
-        <v>11.59827559669527</v>
+        <v>11.54262969166946</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.40857834339497</v>
+        <v>27.23455780876953</v>
       </c>
       <c r="H13">
-        <v>5.765929385252918</v>
+        <v>5.737312329518308</v>
       </c>
       <c r="I13">
-        <v>3.549988284532664</v>
+        <v>3.49779097633162</v>
       </c>
       <c r="J13">
-        <v>9.042871538833232</v>
+        <v>8.493773335917444</v>
       </c>
       <c r="K13">
-        <v>11.82277767262447</v>
+        <v>11.36174882333003</v>
       </c>
       <c r="L13">
-        <v>5.815709738165175</v>
+        <v>10.07709355862364</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.038828621707902</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.778095520592943</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.51747702363393</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.59252174601993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.75088292036083</v>
+      </c>
+      <c r="S13">
+        <v>14.95861037510798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.32365973720355</v>
+        <v>23.87547269904034</v>
       </c>
       <c r="C14">
-        <v>18.08619445233301</v>
+        <v>18.45943429134799</v>
       </c>
       <c r="D14">
-        <v>11.31860997536818</v>
+        <v>11.29640547315281</v>
       </c>
       <c r="E14">
-        <v>10.48515723796312</v>
+        <v>10.43123274842123</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.25949833079014</v>
+        <v>25.79719779894817</v>
       </c>
       <c r="H14">
-        <v>6.661930577511169</v>
+        <v>6.639961450081302</v>
       </c>
       <c r="I14">
-        <v>3.503367728415297</v>
+        <v>3.458271364092234</v>
       </c>
       <c r="J14">
-        <v>8.853392923317845</v>
+        <v>8.493214607999663</v>
       </c>
       <c r="K14">
-        <v>11.62513383546249</v>
+        <v>11.22802144624485</v>
       </c>
       <c r="L14">
-        <v>5.576911296701203</v>
+        <v>10.01096800558859</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.862661677702247</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.541810868717211</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.61030028858756</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.10408812935596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.82417171734145</v>
+      </c>
+      <c r="S14">
+        <v>14.55307487876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.13517782556632</v>
+        <v>23.70765992449499</v>
       </c>
       <c r="C15">
-        <v>17.92888936328622</v>
+        <v>18.30411024207471</v>
       </c>
       <c r="D15">
-        <v>11.1157338303679</v>
+        <v>11.09440305943951</v>
       </c>
       <c r="E15">
-        <v>10.2104933495431</v>
+        <v>10.15814533831251</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.9147823302345</v>
+        <v>25.27569284912827</v>
       </c>
       <c r="H15">
-        <v>6.8657740919947</v>
+        <v>6.845672504391227</v>
       </c>
       <c r="I15">
-        <v>3.483403592924091</v>
+        <v>3.442072430581927</v>
       </c>
       <c r="J15">
-        <v>8.802748870293509</v>
+        <v>8.534855305104498</v>
       </c>
       <c r="K15">
-        <v>11.58207642121743</v>
+        <v>11.20810159580531</v>
       </c>
       <c r="L15">
-        <v>5.528336274749726</v>
+        <v>10.00745089422055</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.817138274412112</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.494698232997876</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.63312664584719</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.96516921067457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.83683308731728</v>
+      </c>
+      <c r="S15">
+        <v>14.45083014374452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.38102605245446</v>
+        <v>23.03248898776454</v>
       </c>
       <c r="C16">
-        <v>17.40944217069963</v>
+        <v>17.83306134283563</v>
       </c>
       <c r="D16">
-        <v>10.93724940440631</v>
+        <v>10.92010041824786</v>
       </c>
       <c r="E16">
-        <v>10.12918259288874</v>
+        <v>10.08738503112548</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.47538661558166</v>
+        <v>23.96542143229397</v>
       </c>
       <c r="H16">
-        <v>6.587233773444859</v>
+        <v>6.571655998413314</v>
       </c>
       <c r="I16">
-        <v>3.389790890539054</v>
+        <v>3.363627823792591</v>
       </c>
       <c r="J16">
-        <v>8.788283539035382</v>
+        <v>8.915451351465924</v>
       </c>
       <c r="K16">
-        <v>11.67653294862694</v>
+        <v>11.36362347326524</v>
       </c>
       <c r="L16">
-        <v>5.505640247951438</v>
+        <v>10.15277198938678</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.828798944529191</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.479007611779459</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.61005311208326</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.84866906481748</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.76718386119199</v>
+      </c>
+      <c r="S16">
+        <v>14.47092458732287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.02838340151857</v>
+        <v>22.70784699225896</v>
       </c>
       <c r="C17">
-        <v>17.25642655072928</v>
+        <v>17.71505173738738</v>
       </c>
       <c r="D17">
-        <v>11.20589006114276</v>
+        <v>11.1908216349906</v>
       </c>
       <c r="E17">
-        <v>10.6576535216909</v>
+        <v>10.62198627031742</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.76973243738007</v>
+        <v>23.87087541473581</v>
       </c>
       <c r="H17">
-        <v>5.846390293572066</v>
+        <v>5.831494238664857</v>
       </c>
       <c r="I17">
-        <v>3.342625742282792</v>
+        <v>3.323884303691747</v>
       </c>
       <c r="J17">
-        <v>8.878703476900901</v>
+        <v>9.169672203374699</v>
       </c>
       <c r="K17">
-        <v>11.85189874129144</v>
+        <v>11.54819833476598</v>
       </c>
       <c r="L17">
-        <v>5.600480431581809</v>
+        <v>10.30370213369806</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.922255251761158</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.57732034223815</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.54478595930976</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.02373265684574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.68118628479642</v>
+      </c>
+      <c r="S17">
+        <v>14.69189798317262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.00522950537718</v>
+        <v>22.68131043637268</v>
       </c>
       <c r="C18">
-        <v>17.38838875533695</v>
+        <v>17.89205914540849</v>
       </c>
       <c r="D18">
-        <v>11.89385580351619</v>
+        <v>11.87944940599737</v>
       </c>
       <c r="E18">
-        <v>11.8401633950039</v>
+        <v>11.80773183231757</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.75201519791865</v>
+        <v>24.65699966095708</v>
       </c>
       <c r="H18">
-        <v>4.671544316359606</v>
+        <v>4.653555879889559</v>
       </c>
       <c r="I18">
-        <v>3.328847343917674</v>
+        <v>3.311115482149896</v>
       </c>
       <c r="J18">
-        <v>9.073060428670605</v>
+        <v>9.419772880818305</v>
       </c>
       <c r="K18">
-        <v>12.12942300230506</v>
+        <v>11.80195043602796</v>
       </c>
       <c r="L18">
-        <v>5.889734147535256</v>
+        <v>10.49442589308918</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.109000047996342</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.868025414072832</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.43417515835655</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.47839120724853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.56361680066777</v>
+      </c>
+      <c r="S18">
+        <v>15.14320437860298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.2248490742844</v>
+        <v>22.87707606592834</v>
       </c>
       <c r="C19">
-        <v>17.78655920139629</v>
+        <v>18.34726813806682</v>
       </c>
       <c r="D19">
-        <v>12.86398228651332</v>
+        <v>12.84910347304566</v>
       </c>
       <c r="E19">
-        <v>13.52118776839063</v>
+        <v>13.48958265217868</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.13387111615359</v>
+        <v>25.93655203563854</v>
       </c>
       <c r="H19">
-        <v>3.414394898510392</v>
+        <v>3.387626554445647</v>
       </c>
       <c r="I19">
-        <v>3.351760631102003</v>
+        <v>3.332196742789544</v>
       </c>
       <c r="J19">
-        <v>9.324590746496403</v>
+        <v>9.668883581484785</v>
       </c>
       <c r="K19">
-        <v>12.44882843793862</v>
+        <v>12.0777237782711</v>
       </c>
       <c r="L19">
-        <v>6.413793959477985</v>
+        <v>10.69288425788374</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.340775055029821</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.392241687551525</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.30881469231746</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.09225256527654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.44028883352305</v>
+      </c>
+      <c r="S19">
+        <v>15.72435953576508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.14540013042767</v>
+        <v>23.72128992606278</v>
       </c>
       <c r="C20">
-        <v>18.80463037253174</v>
+        <v>19.45344201771717</v>
       </c>
       <c r="D20">
-        <v>14.54705933992044</v>
+        <v>14.52862097980667</v>
       </c>
       <c r="E20">
-        <v>16.3894659225149</v>
+        <v>16.35303692791667</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.65103802470964</v>
+        <v>28.58500196339336</v>
       </c>
       <c r="H20">
-        <v>2.671546777757412</v>
+        <v>2.622389618050026</v>
       </c>
       <c r="I20">
-        <v>3.464214707457974</v>
+        <v>3.430926833745861</v>
       </c>
       <c r="J20">
-        <v>9.747354671982809</v>
+        <v>9.923418001189702</v>
       </c>
       <c r="K20">
-        <v>12.92228651923658</v>
+        <v>12.4465222759849</v>
       </c>
       <c r="L20">
-        <v>7.477040179099788</v>
+        <v>10.91239540279832</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.748807177244515</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.452231430462969</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.12229794748538</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.17106693395158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.2780224182372</v>
+      </c>
+      <c r="S20">
+        <v>16.69124077704515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.63687684253152</v>
+        <v>25.04544736683187</v>
       </c>
       <c r="C21">
-        <v>19.94968565773661</v>
+        <v>20.51122540485822</v>
       </c>
       <c r="D21">
-        <v>15.3331966078831</v>
+        <v>15.30609188527734</v>
       </c>
       <c r="E21">
-        <v>17.35422607079087</v>
+        <v>17.30122150011061</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>31.11016837922297</v>
+        <v>31.81171045880454</v>
       </c>
       <c r="H21">
-        <v>2.984512989438165</v>
+        <v>2.910856659252602</v>
       </c>
       <c r="I21">
-        <v>3.654827083613984</v>
+        <v>3.59115773121364</v>
       </c>
       <c r="J21">
-        <v>9.920251035598806</v>
+        <v>9.136008385407427</v>
       </c>
       <c r="K21">
-        <v>12.94825408712602</v>
+        <v>12.2884167798143</v>
       </c>
       <c r="L21">
-        <v>7.806327010617007</v>
+        <v>10.67184454271206</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.896406089729211</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.770011241788248</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.07662791089493</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.71540585739943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.31866716064517</v>
+      </c>
+      <c r="S21">
+        <v>16.9231071952496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.55997861892941</v>
+        <v>25.8597819281164</v>
       </c>
       <c r="C22">
-        <v>20.60950068442108</v>
+        <v>21.1022248702316</v>
       </c>
       <c r="D22">
-        <v>15.76390622473468</v>
+        <v>15.73139804159355</v>
       </c>
       <c r="E22">
-        <v>17.84087215435914</v>
+        <v>17.77755250939169</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.98897111278563</v>
+        <v>33.92859374178185</v>
       </c>
       <c r="H22">
-        <v>3.176408412579818</v>
+        <v>3.087274822845701</v>
       </c>
       <c r="I22">
-        <v>3.771914154037389</v>
+        <v>3.687723500018235</v>
       </c>
       <c r="J22">
-        <v>10.02538943818718</v>
+        <v>8.602334206106844</v>
       </c>
       <c r="K22">
-        <v>12.96741624275461</v>
+        <v>12.17809240481634</v>
       </c>
       <c r="L22">
-        <v>7.965526875131018</v>
+        <v>10.51234881550971</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.997031476288685</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.921976636986522</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.05239741666706</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>18.04578956013038</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.35489268723984</v>
+      </c>
+      <c r="S22">
+        <v>17.038122838745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.08564007403911</v>
+        <v>25.45496656967364</v>
       </c>
       <c r="C23">
-        <v>20.23227556303936</v>
+        <v>20.7821922002829</v>
       </c>
       <c r="D23">
-        <v>15.53544832214229</v>
+        <v>15.50616233097987</v>
       </c>
       <c r="E23">
-        <v>17.58308861623147</v>
+        <v>17.5259213707079</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.55942109021648</v>
+        <v>32.63334046712054</v>
       </c>
       <c r="H23">
-        <v>3.075014138717058</v>
+        <v>2.995087426156631</v>
       </c>
       <c r="I23">
-        <v>3.706786170859711</v>
+        <v>3.63317229409714</v>
       </c>
       <c r="J23">
-        <v>9.976601664557931</v>
+        <v>8.985487768141477</v>
       </c>
       <c r="K23">
-        <v>12.97493973763453</v>
+        <v>12.26765007549978</v>
       </c>
       <c r="L23">
-        <v>7.881268380343726</v>
+        <v>10.61608590058643</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.971031802784104</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.842028336100658</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.05972045561167</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.88713860865522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.32414737828365</v>
+      </c>
+      <c r="S23">
+        <v>17.02168446988277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.17863853801979</v>
+        <v>23.75314960515737</v>
       </c>
       <c r="C24">
-        <v>18.79048112597982</v>
+        <v>19.44501668431819</v>
       </c>
       <c r="D24">
-        <v>14.64427803060129</v>
+        <v>14.62579969476786</v>
       </c>
       <c r="E24">
-        <v>16.57388744987272</v>
+        <v>16.53753737694527</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.84682274952897</v>
+        <v>28.75948548596939</v>
       </c>
       <c r="H24">
-        <v>2.681801450992695</v>
+        <v>2.632431932211269</v>
       </c>
       <c r="I24">
-        <v>3.460596464708326</v>
+        <v>3.425189142885174</v>
       </c>
       <c r="J24">
-        <v>9.785299181638003</v>
+        <v>9.966393111553952</v>
       </c>
       <c r="K24">
-        <v>12.98748963406491</v>
+        <v>12.50628500070571</v>
       </c>
       <c r="L24">
-        <v>7.553269897659273</v>
+        <v>10.95531986258577</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.797738594324705</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.528553463195515</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.10215128900838</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.26097107641023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.25652702535381</v>
+      </c>
+      <c r="S24">
+        <v>16.77936425818753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.93236148297564</v>
+        <v>21.60316673713276</v>
       </c>
       <c r="C25">
-        <v>17.11227342336036</v>
+        <v>17.63634711972795</v>
       </c>
       <c r="D25">
-        <v>13.63090032777319</v>
+        <v>13.61986013627669</v>
       </c>
       <c r="E25">
-        <v>15.41851559996743</v>
+        <v>15.3966385590927</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.95396253277928</v>
+        <v>26.81580351044309</v>
       </c>
       <c r="H25">
-        <v>2.239327154559139</v>
+        <v>2.210730720576163</v>
       </c>
       <c r="I25">
-        <v>3.187184924296957</v>
+        <v>3.182940087682093</v>
       </c>
       <c r="J25">
-        <v>9.591276216438908</v>
+        <v>9.879019047963689</v>
       </c>
       <c r="K25">
-        <v>13.02894350906536</v>
+        <v>12.6301392956515</v>
       </c>
       <c r="L25">
-        <v>7.182138483165619</v>
+        <v>11.23563162653518</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.54666655651998</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.167475690628073</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.15955490421037</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.59492662326286</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.2519081396693</v>
+      </c>
+      <c r="S25">
+        <v>16.22314430761002</v>
       </c>
     </row>
   </sheetData>
